--- a/TestCase_bak.xlsx
+++ b/TestCase_bak.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="UPSLabel" sheetId="1" r:id="rId1"/>
@@ -7886,229 +7886,6 @@
   </si>
   <si>
     <t>{
-  "weidanbao_history":  {
-    "is_success":1,
-    "cur_credit":104000,
-    "BASE64_result":  {
-       "CreditAmount": 104000,
-    "MsgBody": {
-        "cur_credit": 104000,
-        "error_code": 0,
-        "error_info": "成功",
-        "fanyilist": [
-            {
-                "mokuai": "身份",
-                "weidu": [
-                    {
-                        "edu": 15000,
-                        "guize": "大专以下:0 ; 大专:8000 ; 普通本科:10000 ; (211,985)本科:12000 ; 硕士:15000 ; 博士及以上:20000",
-                        "weiduming": "学历",
-                        "yonghuxinxi": "硕士"
-                    },
-                    {
-                        "edu": 2500,
-                        "guize": "男:1500 ; 女:2500",
-                        "weiduming": "性别",
-                        "yonghuxinxi": "女"
-                    },
-                    {
-                        "edu": 0,
-                        "guize": "25-30岁:2500 ;31-35岁:2000;36-40岁:1000;41-45岁:1500",
-                        "weiduming": "年龄",
-                        "yonghuxinxi": "46"
-                    },
-                    {
-                        "edu": 0,
-                        "guize": "已婚:5000 ; 未婚:0; 离异:0 ; 其他:0",
-                        "weiduming": "婚姻",
-                        "yonghuxinxi": "其他"
-                    },
-                    {
-                        "edu": 5000,
-                        "guize": "有子女:5000; 无子女:0",
-                        "weiduming": "是否有子女",
-                        "yonghuxinxi": "有"
-                    },
-                    {
-                        "edu": 0,
-                        "guize": "本地人: 40000; 非本地人:0",
-                        "weiduming": "是否本地人",
-                        "yonghuxinxi": "否"
-                    }
-                ]
-            },
-            {
-                "mokuai": "工作",
-                "weidu": [
-                    {
-                        "edu": 10000,
-                        "guize": "1年≤工作总工龄&lt;3年:3000; 3年≤工作总工龄&lt;5年:5000; 5年≤工作总工龄&lt;8年:8000; 8年以上:10000",
-                        "weiduming": "工作总工龄",
-                        "yonghuxinxi": "14"
-                    },
-                    {
-                        "edu": 20000,
-                        "guize": "工作年限&lt;1年:0; 1年≤工作年限&lt;2年:6000; 2年≤工作年限&lt;3年:10000; 3年≤工作年限&lt;4年:15000; 4年≤工作年限&lt;5年:20000; 工作年限≥5年:30000",
-                        "weiduming": "当前单位工作年限",
-                        "yonghuxinxi": "4"
-                    },
-                    {
-                        "edu": 100000,
-                        "guize": "普通职员:10000; 业务主管:30000; 部门经理:50000; 副总:80000; 总经理及以上:100000",
-                        "weiduming": "当前工作单位岗位级别",
-                        "yonghuxinxi": "总经理及以上"
-                    }
-                ]
-            },
-            {
-                "mokuai": "资产",
-                "weidu": [
-                    {
-                        "edu": 0,
-                        "guize": "本地自有:40000; 异地自有:30000; 父母同住:20000; 租房:0; 单位宿舍:0; 其它:0",
-                        "weiduming": "住宅类型",
-                        "yonghuxinxi": "单位宿舍"
-                    },
-                    {
-                        "edu": 0,
-                        "guize": "有车:11000; 无车:0",
-                        "weiduming": "车产",
-                        "yonghuxinxi": "无"
-                    },
-                    {
-                        "edu": 41176.47265625,
-                        "guize": "(max(min((年收入-3)*10/17,11),0))*10000",
-                        "weiduming": "年收入",
-                        "yonghuxinxi": "10"
-                    },
-                    {
-                        "edu": 4000,
-                        "guize": "(将来一年内团贷网待收总金额*0.2/10000） * 10000",
-                        "weiduming": "团贷网待收",
-                        "yonghuxinxi": "20000"
-                    }
-                ]
-            },
-            {
-                "mokuai": "手机号码使用情况",
-                "weidu": [
-                    {
-                        "edu": 0,
-                        "guize": "0个≤电话号码数＜100个:0; 100个≤电话号码数＜200个:5000; 200个≤电话号码数＜400个:10000; 电话号码数≥400个:15000",
-                        "weiduming": "通讯录号码个数",
-                        "yonghuxinxi": "51"
-                    }
-                ]
-            },
-            {
-                "mokuai": "地址",
-                "weidu": [
-                    {
-                        "edu": 1000,
-                        "guize": "一线城市:2000; 二线城市:1000; 其他城市:500",
-                        "weiduming": "身份证原始发征地城市",
-                        "yonghuxinxi": "二线城市"
-                    },
-                    {
-                        "edu": 3000,
-                        "guize": "一线城市:3000; 二线城市:1000; 其他城市:500",
-                        "weiduming": "常住城市类别",
-                        "yonghuxinxi": "一线城市"
-                    },
-                    {
-                        "edu": 0,
-                        "guize": "一致:25000; 不一致:0",
-                        "weiduming": "手机号码归属地与居住地/公司地址是否一致",
-                        "yonghuxinxi": "不一致"
-                    }
-                ]
-            },
-            {
-                "mokuai": "信用卡",
-                "weidu": [
-                    {
-                        "edu": 1000,
-                        "guize": "信用卡额度使用率≤50%:min(（信用卡最大使用额度*（1-信用卡额度平均使用率)*0.8）/10000；信用卡额度使用率&gt;50%; (max(信用卡最大信用额度*0.2,信用卡最大信用额度*(1-信用卡额度平均使用率)*0.8))/10000,3); 不能获取信用卡使用额度：min((信用卡最大还款金额*0.5)/10000 * 10000, 3)",
-                        "weiduming": "信用卡",
-                        "yonghuxinxi": "2000"
-                    }
-                ]
-            },
-            {
-                "mokuai": "用户行为",
-                "weidu": [
-                    {
-                        "edu": 0,
-                        "guize": "10天及以内:0; 11-15天:500; 16-30天:2000; 31-60天:3000; 61天及以上:5000",
-                        "weiduming": "登陆天数",
-                        "yonghuxinxi": "0"
-                    }
-                ]
-            },
-            {
-                "mokuai": "负债",
-                "weidu": [
-                    {
-                        "edu": -20000,
-                        "guize": "(max(-(近一年应还贷款总额)*0.5/10000, -10))*10000",
-                        "weiduming": "负债",
-                        "yonghuxinxi": "40000"
-                    }
-                ]
-            },
-            {
-                "mokuai": "征信情况",
-                "weidu": [
-                    {
-                        "edu": -20000,
-                        "guize": "0次:0; 1-3次: -5000; 4-6次:-10000; 7次及以上:-20000",
-                        "weiduming": "5年内信用卡逾期",
-                        "yonghuxinxi": "8"
-                    },
-                    {
-                        "edu": -30000,
-                        "guize": "0条:0; 1-3条:-10000; 4-5条:-20000; 6条及以上:-30000",
-                        "weiduming": "电信欠费条数",
-                        "yonghuxinxi": "7"
-                    }
-                ]
-            },
-            {
-                "mokuai": "风险评分",
-                "weidu": [
-                    {
-                        "edu": 1.1200000047683716,
-                        "guize": "（芝麻分-550分）*0.0008+1",
-                        "weiduming": "芝麻分数",
-                        "yonghuxinxi": "700"
-                    }
-                ]
-            },
-            {
-                "mokuai": "反欺诈",
-                "weidu": [
-                    {
-                        "edu": 0.699999988079071,
-                        "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95;事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8;事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7;事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库':0.5",
-                        "weiduming": "同盾结果系数",
-                        "yonghuxinxi": "60"
-                    }
-                ]
-            }
-        ],
-        "identity_card": "442001197001011105",
-        "mobile_phone": "13607766105",
-        "real_name": "微担保授信场景5"
-    },
-    "Role": 3,
-    "Type": 1
-    }
-  }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "weidanbao_history": {
         "is_success": 1,
         "cur_credit": 107700,
@@ -8567,16 +8344,6 @@
     "danbao_request": {
         "update_time": 1447654250,
         "handle_type": 3,
-        "json": {"CardInfo":[{"MaxReturnAmount":1000},{"MaxReturnAmount":2000},{"MaxReturnAmount":2000}],"EnterpRegistrInfo":{"EnterpRegistrCapital":0,"IsEnterprisLegalPerson":0},"FamilyInfo":{"IsHaveChildren":1,"MarriageType":1},"LivingInfo":{"AddressType":1,"LivingAddress":"null","LivingCity":"桂林市","LivingProvince":"广西壮族自治区"},"PostPhoneList":{"AddressList":"[{\"phone\":\"13410979700\",\"name\":\"罗春0\",\"email\":\"\"},{\"phone\":\"13410979701\",\"name\":\"罗春1\",\"email\":\"\"},{\"phone\":\"13410979702\",\"name\":\"罗春2\",\"email\":\"\"},{\"phone\":\"13410979703\",\"name\":\"罗春3\",\"email\":\"\"},{\"phone\":\"13410979704\",\"name\":\"罗春4\",\"email\":\"\"},{\"phone\":\"13410979705\",\"name\":\"罗春5\",\"email\":\"\"},{\"phone\":\"134109749706\",\"name\":\"罗春6\",\"email\":\"\"},{\"phone\":\"13410979707\",\"name\":\"罗春7\",\"email\":\"\"},{\"phone\":\"13410979708\",\"name\":\"罗春8\",\"email\":\"\"},{\"phone\":\"13410979709\",\"name\":\"罗春9\",\"email\":\"\"},{\"phone\":\"13410979710\",\"name\":\"罗春10\",\"email\":\"\"},{\"phone\":\"13410979711\",\"name\":\"罗春11\",\"email\":\"\"},{\"phone\":\"13410979712\",\"name\":\"罗春12\",\"email\":\"\"},{\"phone\":\"13410979713\",\"name\":\"罗春13\",\"email\":\"\"},{\"phone\":\"13410979714\",\"name\":\"罗春14\",\"email\":\"\"},{\"phone\":\"13410979715\",\"name\":\"罗春15\",\"email\":\"\"},{\"phone\":\"13410979716\",\"name\":\"罗春16\",\"email\":\"\"},{\"phone\":\"13410979717\",\"name\":\"罗春17\",\"email\":\"\"},{\"phone\":\"13410979718\",\"name\":\"罗春18\",\"email\":\"\"},{\"phone\":\"13410979719\",\"name\":\"罗春19\",\"email\":\"\"},{\"phone\":\"13410979720\",\"name\":\"罗春20\",\"email\":\"\"},{\"phone\":\"13410979721\",\"name\":\"罗春21\",\"email\":\"\"},{\"phone\":\"13410979722\",\"name\":\"罗春22\",\"email\":\"\"},{\"phone\":\"13410979723\",\"name\":\"罗春23\",\"email\":\"\"},{\"phone\":\"13410979724\",\"name\":\"罗春24\",\"email\":\"\"},{\"phone\":\"13410979725\",\"name\":\"罗春25\",\"email\":\"\"},{\"phone\":\"13410979726\",\"name\":\"罗春26\",\"email\":\"\"},{\"phone\":\"13410979727\",\"name\":\"罗春27\",\"email\":\"\"},{\"phone\":\"13410979728\",\"name\":\"罗春28\",\"email\":\"\"},{\"phone\":\"13410979729\",\"name\":\"罗春29\",\"email\":\"\"},{\"phone\":\"13410979730\",\"name\":\"罗春30\",\"email\":\"\"},{\"phone\":\"13410979731\",\"name\":\"罗春31\",\"email\":\"\"},{\"phone\":\"13410979732\",\"name\":\"罗春32\",\"email\":\"\"},{\"phone\":\"13410979733\",\"name\":\"罗春33\",\"email\":\"\"},{\"phone\":\"13410979734\",\"name\":\"罗春34\",\"email\":\"\"},{\"phone\":\"13410979735\",\"name\":\"罗春35\",\"email\":\"\"},{\"phone\":\"13410979736\",\"name\":\"罗春36\",\"email\":\"\"},{\"phone\":\"13410979737\",\"name\":\"罗春37\",\"email\":\"\"},{\"phone\":\"13410979738\",\"name\":\"罗春38\",\"email\":\"\"},{\"phone\":\"13410979739\",\"name\":\"罗春39\",\"email\":\"\"},{\"phone\":\"13410979740\",\"name\":\"罗春40\",\"email\":\"\"},{\"phone\":\"13410979741\",\"name\":\"罗春41\",\"email\":\"\"},{\"phone\":\"13410979742\",\"name\":\"罗春42\",\"email\":\"\"},{\"phone\":\"13410979743\",\"name\":\"罗春43\",\"email\":\"\"},{\"phone\":\"13410979744\",\"name\":\"罗春44\",\"email\":\"\"},{\"phone\":\"13410979745\",\"name\":\"罗春45\",\"email\":\"\"},{\"phone\":\"13410979746\",\"name\":\"罗春46\",\"email\":\"\"},{\"phone\":\"13410979747\",\"name\":\"罗春47\",\"email\":\"\"},{\"phone\":\"13410979748\",\"name\":\"罗春48\",\"email\":\"\"},{\"phone\":\"13410979749\",\"name\":\"罗春49\",\"email\":\"\"},{\"phone\":\"13410979750\",\"name\":\"罗春50\",\"email\":\"\"}]","PhoneListDate":"20151012100943000001"},"PropertyInfo":{"Car":1,"CarList":[],"House":1,"HouseList":[{"HouseProvince":"广西壮族自治区","HouseCity":"桂林市"}]},"StudentCertification":{"DegreeType":1,"EducationApplyType":0,"GraduateDate":"20140628000000000006","IsVerify":true},"StudentInfo":{},"UserBasicInfo":{"IdentityCard":"450300199001011101","IsDCredit":1,"IsJCredit":0,"Istuandai":0,"RealName":"微担保授信场景1","RegisterTime":"20151009143853000005","Sex":1,"TelNo":"13077660101","UserId":"360121af-1fef-44f9-84b9-72cb19cad102","UserStatus":33,"UserType":1},"WorkInfo":{"Income":0,"IncomeTypeId":20.00,"PositionLevel":1,"CompanyProvince":"广东省","CompanyCity":"深圳市","WorkYears":0}}
-            }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "danbao_request": {
-        "update_time": 1447654250,
-        "handle_type": 3,
         "json": {"CardInfo":[{"MaxReturnAmount":1000},{"MaxReturnAmount":2000},{"MaxReturnAmount":5000}],"EnterpRegistrInfo":{"EnterpRegistrCapital":0,"IsEnterprisLegalPerson":0},"FamilyInfo":{"IsHaveChildren":0,"MarriageType":0},"LivingInfo":{"AddressType":1,"LivingAddress":"null","LivingCity":"桂林市","LivingProvince":"广西壮族自治区"},"PostPhoneList":{"AddressList":"[{\"phone\":\"13410979700\",\"name\":\"罗春0\",\"email\":\"\"},{\"phone\":\"13410979701\",\"name\":\"罗春1\",\"email\":\"\"},{\"phone\":\"13410979702\",\"name\":\"罗春2\",\"email\":\"\"},{\"phone\":\"13410979703\",\"name\":\"罗春3\",\"email\":\"\"},{\"phone\":\"13410979704\",\"name\":\"罗春4\",\"email\":\"\"},{\"phone\":\"13410979705\",\"name\":\"罗春5\",\"email\":\"\"},{\"phone\":\"134109749706\",\"name\":\"罗春6\",\"email\":\"\"},{\"phone\":\"13410979707\",\"name\":\"罗春7\",\"email\":\"\"},{\"phone\":\"13410979708\",\"name\":\"罗春8\",\"email\":\"\"},{\"phone\":\"13410979709\",\"name\":\"罗春9\",\"email\":\"\"},{\"phone\":\"13410979710\",\"name\":\"罗春10\",\"email\":\"\"},{\"phone\":\"13410979711\",\"name\":\"罗春11\",\"email\":\"\"},{\"phone\":\"13410979712\",\"name\":\"罗春12\",\"email\":\"\"},{\"phone\":\"13410979713\",\"name\":\"罗春13\",\"email\":\"\"},{\"phone\":\"13410979714\",\"name\":\"罗春14\",\"email\":\"\"},{\"phone\":\"13410979715\",\"name\":\"罗春15\",\"email\":\"\"},{\"phone\":\"13410979716\",\"name\":\"罗春16\",\"email\":\"\"},{\"phone\":\"13410979717\",\"name\":\"罗春17\",\"email\":\"\"},{\"phone\":\"13410979718\",\"name\":\"罗春18\",\"email\":\"\"},{\"phone\":\"13410979719\",\"name\":\"罗春19\",\"email\":\"\"},{\"phone\":\"13410979720\",\"name\":\"罗春20\",\"email\":\"\"},{\"phone\":\"13410979721\",\"name\":\"罗春21\",\"email\":\"\"},{\"phone\":\"13410979722\",\"name\":\"罗春22\",\"email\":\"\"},{\"phone\":\"13410979723\",\"name\":\"罗春23\",\"email\":\"\"},{\"phone\":\"13410979724\",\"name\":\"罗春24\",\"email\":\"\"},{\"phone\":\"13410979725\",\"name\":\"罗春25\",\"email\":\"\"},{\"phone\":\"13410979726\",\"name\":\"罗春26\",\"email\":\"\"},{\"phone\":\"13410979727\",\"name\":\"罗春27\",\"email\":\"\"},{\"phone\":\"13410979728\",\"name\":\"罗春28\",\"email\":\"\"},{\"phone\":\"13410979729\",\"name\":\"罗春29\",\"email\":\"\"},{\"phone\":\"13410979730\",\"name\":\"罗春30\",\"email\":\"\"},{\"phone\":\"13410979731\",\"name\":\"罗春31\",\"email\":\"\"},{\"phone\":\"13410979732\",\"name\":\"罗春32\",\"email\":\"\"},{\"phone\":\"13410979733\",\"name\":\"罗春33\",\"email\":\"\"},{\"phone\":\"13410979734\",\"name\":\"罗春34\",\"email\":\"\"},{\"phone\":\"13410979735\",\"name\":\"罗春35\",\"email\":\"\"},{\"phone\":\"13410979736\",\"name\":\"罗春36\",\"email\":\"\"},{\"phone\":\"13410979737\",\"name\":\"罗春37\",\"email\":\"\"},{\"phone\":\"13410979738\",\"name\":\"罗春38\",\"email\":\"\"},{\"phone\":\"13410979739\",\"name\":\"罗春39\",\"email\":\"\"},{\"phone\":\"13410979740\",\"name\":\"罗春40\",\"email\":\"\"},{\"phone\":\"13410979741\",\"name\":\"罗春41\",\"email\":\"\"},{\"phone\":\"13410979742\",\"name\":\"罗春42\",\"email\":\"\"},{\"phone\":\"13410979743\",\"name\":\"罗春43\",\"email\":\"\"},{\"phone\":\"13410979744\",\"name\":\"罗春44\",\"email\":\"\"},{\"phone\":\"13410979745\",\"name\":\"罗春45\",\"email\":\"\"},{\"phone\":\"13410979746\",\"name\":\"罗春46\",\"email\":\"\"},{\"phone\":\"13410979747\",\"name\":\"罗春47\",\"email\":\"\"},{\"phone\":\"13410979748\",\"name\":\"罗春48\",\"email\":\"\"},{\"phone\":\"13410979749\",\"name\":\"罗春49\",\"email\":\"\"},{\"phone\":\"13410979750\",\"name\":\"罗春50\",\"email\":\"\"},{\"phone\":\"13410979700\",\"name\":\"罗春0\",\"email\":\"\"},{\"phone\":\"13410979701\",\"name\":\"罗春1\",\"email\":\"\"},{\"phone\":\"13410979702\",\"name\":\"罗春2\",\"email\":\"\"},{\"phone\":\"13410979703\",\"name\":\"罗春3\",\"email\":\"\"},{\"phone\":\"13410979704\",\"name\":\"罗春4\",\"email\":\"\"},{\"phone\":\"13410979705\",\"name\":\"罗春5\",\"email\":\"\"},{\"phone\":\"134109749706\",\"name\":\"罗春6\",\"email\":\"\"},{\"phone\":\"13410979707\",\"name\":\"罗春7\",\"email\":\"\"},{\"phone\":\"13410979708\",\"name\":\"罗春8\",\"email\":\"\"},{\"phone\":\"13410979709\",\"name\":\"罗春9\",\"email\":\"\"},{\"phone\":\"13410979710\",\"name\":\"罗春10\",\"email\":\"\"},{\"phone\":\"13410979711\",\"name\":\"罗春11\",\"email\":\"\"},{\"phone\":\"13410979712\",\"name\":\"罗春12\",\"email\":\"\"},{\"phone\":\"13410979713\",\"name\":\"罗春13\",\"email\":\"\"},{\"phone\":\"13410979714\",\"name\":\"罗春14\",\"email\":\"\"},{\"phone\":\"13410979715\",\"name\":\"罗春15\",\"email\":\"\"},{\"phone\":\"13410979716\",\"name\":\"罗春16\",\"email\":\"\"},{\"phone\":\"13410979717\",\"name\":\"罗春17\",\"email\":\"\"},{\"phone\":\"13410979718\",\"name\":\"罗春18\",\"email\":\"\"},{\"phone\":\"13410979719\",\"name\":\"罗春19\",\"email\":\"\"},{\"phone\":\"13410979720\",\"name\":\"罗春20\",\"email\":\"\"},{\"phone\":\"13410979721\",\"name\":\"罗春21\",\"email\":\"\"},{\"phone\":\"13410979722\",\"name\":\"罗春22\",\"email\":\"\"},{\"phone\":\"13410979723\",\"name\":\"罗春23\",\"email\":\"\"},{\"phone\":\"13410979724\",\"name\":\"罗春24\",\"email\":\"\"},{\"phone\":\"13410979725\",\"name\":\"罗春25\",\"email\":\"\"},{\"phone\":\"13410979726\",\"name\":\"罗春26\",\"email\":\"\"},{\"phone\":\"13410979727\",\"name\":\"罗春27\",\"email\":\"\"},{\"phone\":\"13410979728\",\"name\":\"罗春28\",\"email\":\"\"},{\"phone\":\"13410979729\",\"name\":\"罗春29\",\"email\":\"\"},{\"phone\":\"13410979730\",\"name\":\"罗春30\",\"email\":\"\"},{\"phone\":\"13410979731\",\"name\":\"罗春31\",\"email\":\"\"},{\"phone\":\"13410979732\",\"name\":\"罗春32\",\"email\":\"\"},{\"phone\":\"13410979733\",\"name\":\"罗春33\",\"email\":\"\"},{\"phone\":\"13410979734\",\"name\":\"罗春34\",\"email\":\"\"},{\"phone\":\"13410979735\",\"name\":\"罗春35\",\"email\":\"\"},{\"phone\":\"13410979736\",\"name\":\"罗春36\",\"email\":\"\"},{\"phone\":\"13410979737\",\"name\":\"罗春37\",\"email\":\"\"},{\"phone\":\"13410979738\",\"name\":\"罗春38\",\"email\":\"\"},{\"phone\":\"13410979739\",\"name\":\"罗春39\",\"email\":\"\"},{\"phone\":\"13410979740\",\"name\":\"罗春40\",\"email\":\"\"},{\"phone\":\"13410979741\",\"name\":\"罗春41\",\"email\":\"\"},{\"phone\":\"13410979742\",\"name\":\"罗春42\",\"email\":\"\"},{\"phone\":\"13410979743\",\"name\":\"罗春43\",\"email\":\"\"},{\"phone\":\"13410979744\",\"name\":\"罗春44\",\"email\":\"\"},{\"phone\":\"13410979745\",\"name\":\"罗春45\",\"email\":\"\"},{\"phone\":\"13410979746\",\"name\":\"罗春46\",\"email\":\"\"},{\"phone\":\"13410979747\",\"name\":\"罗春47\",\"email\":\"\"},{\"phone\":\"13410979748\",\"name\":\"罗春48\",\"email\":\"\"},{\"phone\":\"13410979749\",\"name\":\"罗春49\",\"email\":\"\"},{\"phone\":\"13410979750\",\"name\":\"罗春100\",\"email\":\"\"}]","PhoneListDate":"20151012100943000001"},"PropertyInfo":{"Car":0,"CarList":[],"House":1,"HouseList":[{"HouseProvince":"广东省"},{"HouseCity":"东莞市"}]},"StudentCertification":{"DegreeType":2,"EducationApplyType":0,"GraduateDate":"20110628000000000006","IsVerify":true},"StudentInfo":{},"UserBasicInfo":{"IdentityCard":"360121198401011102","IsDCredit":1,"IsJCredit":0,"Istuandai":0,"RealName":"微担保授信场景2","RegisterTime":"20151009143853000005","Sex":2,"TelNo":"13607766102","UserId":"360121af-1fef-44f9-84b9-72cb19cad102","UserStatus":33,"UserType":1},"WorkInfo":{"Income":0,"IncomeTypeId":20.00,"PositionLevel":2,"CompanyProvince":"广东省","CompanyCity":"深圳市","WorkYears":1}}
     }
 }</t>
@@ -8684,6 +8451,352 @@
   <si>
     <t xml:space="preserve">
    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 1,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景1",
+                "TelNo": "18675559701",
+                "IdentityCard": "110000196101011001",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 1
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "StudentInfo": {
+                "LivingProvince": "北京市",
+                "LivingCity": "北京市",
+                "GraduateDate": "20160720165834000004",
+                "EduSchool": "新兴电大",
+                "EduRecord": "电大"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "friend_request":{
+    "update_time":1447654250,
+    "handle_type":120,
+    "json":{
+       "UserID": "a01980ca-c557-4382-9e34-93b79a3a9d66",
+       "IdentitytCard": "022001196101170001",
+       "RealName": "A用户",
+       "Phone": "13600000001",
+       "IsProve": 1,
+       "PhoneFiendList": [
+        {
+            "UserID": "b01980ca-c557-4382-9e34-93b79a3a9d66",
+            "IdentitytCard": "022002196101170001",
+            "RealName": "B用户",
+            "Phone": "13600000002",
+            "IsProve": 1,
+            "Type": 1,
+            "Coincide": 0.3
+        }
+    ]
+   }
+  }
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"FunctionCode":"100122","CurrentTime":"20150723203212000000","MsgBody":{"user_id":"abc123456","ProjectId":"123","identity_card":"003001195901160031","idtype":"0","name":"陈刚","bank_cart":"12345","reasonno":"04","blackBox":"123","ip":"192.168.1.122","account_login":"test123","mobile_phone":"18675559750","loanType":"99","currency":"23232","loanMoney":10000,"loanTimeLimit":12,"applyDate":"2015-08-01","assureType":"D","creditAddress":"北京","is_student":1,"is_first_time":0,"degree":"本科","RELATION_VERIFICATION":[{"relation_name":"陈刚","relation_phone":"18675559750"},{"relation_name":"","relation_phone":""}]}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "friend_request":  {
+    "update_time":1447654250,
+    "handle_type":120,
+    "json":    {
+    "UserID": "c01980ca-c557-4382-9e34-93b79a3a9d66",
+    "IdentitytCard": "022003196101170001",
+    "RealName": "C用户",
+    "Phone": "13600000003",
+    "IsProve": 1,
+    "PhoneFiendList": [
+        {
+            "UserID": "a01980ca-c557-4382-9e34-93b79a3a9d66",
+            "IdentitytCard": "022001196101170001",
+            "RealName": "A用户",
+            "Phone": "13600000001",
+            "IsProve": 1,
+            "Type": 1,
+            "Coincide": 0.3
+        }
+    ]
+}
+  }
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "MQMOCK": {
+        "blacklist": [
+            {
+                "_id": {
+                    "$oid": "55dd907455c5496b54233eca"
+                },
+                "crawldataupdatedate": "20150827200322",
+                "shouldpayments": "",
+                "totalborrowamount": "",
+                "link_man_relation": "",
+                "link_man_mobile_no": "",
+                "updatedate": "2015-08-27",
+                "company_address": "",
+                "last_overdue_borrow_date": "",
+                "sex": "男",
+                "phone": "",
+                "overduepayout": "30,480.00",
+                "reference_link": "",
+                "user": "",
+                "lenders": "",
+                "mobilephone": "18675559750",
+                "last_borrowtime": "",
+                "max_overduedays": "76",
+                "company_phone": "",
+                "birth_address": "",
+                "name": "陈刚",
+                "identity_card": "003002196101160031",
+                "living_address": "惠州市上排龙八啤酒厂5栋301",
+                "overdueno": "1",
+                "company_name": "",
+                "cumulateadvancement": "0",
+                "link_man_name": "",
+                "email": "hzhuirong23@sina.com",
+                "refundmoney": ""
+            }
+        ],
+        "qianhai_credit": {},
+        "qianhai_black_check": {},
+        "tongdun_loan": {},
+        "laolai_crawler": [],
+        "bairong_credit": {}
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "userbasicinfo": {
+            "userid": "absdfggery",
+            "UserStatus": 0,
+            "UserType": "1",
+            "UserIDCard": "003002196101160031",
+            "UserRealName": "陈刚",
+            "MobilePhone": 18675559750
+        }
+    },
+    {
+        "FunctionCode": "100122",
+        "CurrentTime": "20150723203212000000",
+        "MsgBody": {
+            "user_id": "abc123456",
+            "ProjectId": "123",
+            "identity_card": "003002196101160031",
+            "idtype": "0",
+            "name": "陈刚",
+            "bank_cart": "12345",
+            "reasonno": "04",
+            "blackBox": "123",
+            "ip": "192.168.1.122",
+            "account_login": "test123",
+            "mobile_phone": "18675559750",
+            "loanType": "99",
+            "currency": "23232",
+            "loanMoney": 10000,
+            "loanTimeLimit": 12,
+            "applyDate": "2015-08-01",
+            "assureType": "D",
+            "creditAddress": "北京",
+            "is_student": 1,
+            "is_first_time": 0,
+            "degree": "本科",
+            "RELATION_VERIFICATION": [
+                {
+                    "relation_name": "陈刚",
+                    "relation_phone": "18675559750"
+                },
+                {
+                    "relation_name": "",
+                    "relation_phone": ""
+                }
+            ]
+        }
+    }
+]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "niiwoo_d_history":  {
+    "user_type":0,
+    "is_success":1,
+    "cur_credit":5300,
+    "BASE64_sum_info":    {
+      "error_code":0,
+      "fCredit":5282.6396484375,
+      "iCredit":5300,
+      "fanyilist":      [
+        {
+          "mokuai":"身份",
+          "weidu":          [
+            {
+              "edu":200,
+              "guize":"男:200 ; 女:400",
+              "weiduming":"性别",
+              "yonghuxinxi":"男"
+            },
+            {
+              "edu":3000,
+              "guize":"大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
+              "weiduming":"学籍",
+              "yonghuxinxi":"普通本科"
+            },
+            {
+              "edu":200,
+              "guize":"1年以内（含1年，且&amp;gt;=6个月）:200 ; 1年以上:400",
+              "weiduming":"距离毕业时长",
+              "yonghuxinxi":"8"
+            },
+            {
+              "edu":0,
+              "guize":"是:1000 ; 否:0",
+              "weiduming":"是否本地人",
+              "yonghuxinxi":"非本地人"
+            }
+          ]
+        },
+        {
+          "mokuai":"地址信息",
+          "weidu":          [
+            {
+              "edu":200,
+              "guize":"一线城市:0 ; 二线城市:100 ; 其它:200",
+              "weiduming":"身份证原始发证地城市类别",
+              "yonghuxinxi":"广东省汕头市"
+            },
+            {
+              "edu":0,
+              "guize":"一线城市:100 ; 二线城市:200 ; 其它:0",
+              "weiduming":"学校地址城市类别",
+              "yonghuxinxi":"河源"
+            }
+          ]
+        },
+        {
+          "mokuai":"通讯录",
+          "weidu":          [
+            {
+              "edu":1000,
+              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
+              "weiduming":"通讯录",
+              "yonghuxinxi":"100"
+            }
+          ]
+        },
+        {
+          "mokuai":"芝麻分",
+          "weidu":          [
+            {
+              "edu":1.2760000228881836,
+              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+              "weiduming":"芝麻系数",
+              "yonghuxinxi":"688"
+            }
+          ]
+        },
+        {
+          "mokuai":"反欺诈",
+          "weidu":          [
+            {
+              "edu":0.8999999761581421,
+              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+              "weiduming":"同盾结果系数",
+              "yonghuxinxi":"20"
+            }
+          ]
+        }
+      ]
+    }
+  }
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 1,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景4",
+                "TelNo": "18675559704",
+                "IdentityCard": "450100196101011004",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 2
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "广州市",
+                "GraduateDate": "20160920165834000004",
+                "EduSchool": "中山大学",
+                "EduRecord": "本科"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "usermodelhistory": {
+        "modelName": "额度资格",
+        "modelResult": "1",
+        "status": "0",
+        "errorInfo": "自有黑名单命中",
+        "realName": "陈刚",
+        "mobilePhone": "18675559750",
+        "identityCard": "003002196101160031",
+        "modelType": 3,
+        "AppID": "abc123456"
+    },
+    "HTTPEXP": {
+        "Messge": "success",
+        "Status": "0"
+    },
+    "ResultJson": {
+        "Status": "0",
+        "model_Result": "1"
+    }
+}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -8905,291 +9018,235 @@
   </si>
   <si>
     <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景1",
-                "TelNo": "18675559701",
-                "IdentityCard": "110000196101011001",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 1
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "-1"
-            },
-            "StudentInfo": {
-                "LivingProvince": "北京市",
-                "LivingCity": "北京市",
-                "GraduateDate": "20160720165834000004",
-                "EduSchool": "新兴电大",
-                "EduRecord": "电大"
+  "weidanbao_history":  {
+    "is_success":1,
+    "cur_credit":104000,
+    "BASE64_result":  {
+       "CreditAmount": 104000,
+    "MsgBody": {
+        "cur_credit": 104000,
+        "error_code": 0,
+        "error_info": "成功",
+        "fanyilist": [
+            {
+                "mokuai": "身份",
+                "weidu": [
+                    {
+                        "edu": 15000,
+                        "guize": "大专以下:0 ; 大专:8000 ; 普通本科:10000 ; (211,985)本科:12000 ; 硕士:15000 ; 博士及以上:20000",
+                        "weiduming": "学历",
+                        "yonghuxinxi": "硕士"
+                    },
+                    {
+                        "edu": 2500,
+                        "guize": "男:1500 ; 女:2500",
+                        "weiduming": "性别",
+                        "yonghuxinxi": "女"
+                    },
+                    {
+                        "edu": 0,
+                        "guize": "25-30岁:2500 ;31-35岁:2000;36-40岁:1000;41-45岁:1500",
+                        "weiduming": "年龄",
+                        "yonghuxinxi": "46"
+                    },
+                    {
+                        "edu": 0,
+                        "guize": "已婚:5000 ; 未婚:0; 离异:0 ; 其他:0",
+                        "weiduming": "婚姻",
+                        "yonghuxinxi": "其他"
+                    },
+                    {
+                        "edu": 5000,
+                        "guize": "有子女:5000; 无子女:0",
+                        "weiduming": "是否有子女",
+                        "yonghuxinxi": "有"
+                    },
+                    {
+                        "edu": 0,
+                        "guize": "本地人: 40000; 非本地人:0",
+                        "weiduming": "是否本地人",
+                        "yonghuxinxi": "否"
+                    }
+                ]
+            },
+            {
+                "mokuai": "工作",
+                "weidu": [
+                    {
+                        "edu": 10000,
+                        "guize": "1年≤工作总工龄&lt;3年:3000; 3年≤工作总工龄&lt;5年:5000; 5年≤工作总工龄&lt;8年:8000; 8年以上:10000",
+                        "weiduming": "工作总工龄",
+                        "yonghuxinxi": "14"
+                    },
+                    {
+                        "edu": 20000,
+                        "guize": "工作年限&lt;1年:0; 1年≤工作年限&lt;2年:6000; 2年≤工作年限&lt;3年:10000; 3年≤工作年限&lt;4年:15000; 4年≤工作年限&lt;5年:20000; 工作年限≥5年:30000",
+                        "weiduming": "当前单位工作年限",
+                        "yonghuxinxi": "4"
+                    },
+                    {
+                        "edu": 100000,
+                        "guize": "普通职员:10000; 业务主管:30000; 部门经理:50000; 副总:80000; 总经理及以上:100000",
+                        "weiduming": "当前工作单位岗位级别",
+                        "yonghuxinxi": "总经理及以上"
+                    }
+                ]
+            },
+            {
+                "mokuai": "资产",
+                "weidu": [
+                    {
+                        "edu": 0,
+                        "guize": "本地自有:40000; 异地自有:30000; 父母同住:20000; 租房:0; 单位宿舍:0; 其它:0",
+                        "weiduming": "住宅类型",
+                        "yonghuxinxi": "单位宿舍"
+                    },
+                    {
+                        "edu": 0,
+                        "guize": "有车:11000; 无车:0",
+                        "weiduming": "车产",
+                        "yonghuxinxi": "无"
+                    },
+                    {
+                        "edu": 41176.47265625,
+                        "guize": "(max(min((年收入-3)*10/17,11),0))*10000",
+                        "weiduming": "年收入",
+                        "yonghuxinxi": "10"
+                    },
+                    {
+                        "edu": 4000,
+                        "guize": "(将来一年内团贷网待收总金额*0.2/10000） * 10000",
+                        "weiduming": "团贷网待收",
+                        "yonghuxinxi": "20000"
+                    }
+                ]
+            },
+            {
+                "mokuai": "手机号码使用情况",
+                "weidu": [
+                    {
+                        "edu": 0,
+                        "guize": "0个≤电话号码数＜100个:0; 100个≤电话号码数＜200个:5000; 200个≤电话号码数＜400个:10000; 电话号码数≥400个:15000",
+                        "weiduming": "通讯录号码个数",
+                        "yonghuxinxi": "51"
+                    }
+                ]
+            },
+            {
+                "mokuai": "地址",
+                "weidu": [
+                    {
+                        "edu": 1000,
+                        "guize": "一线城市:2000; 二线城市:1000; 其他城市:500",
+                        "weiduming": "身份证原始发征地城市",
+                        "yonghuxinxi": "二线城市"
+                    },
+                    {
+                        "edu": 3000,
+                        "guize": "一线城市:3000; 二线城市:1000; 其他城市:500",
+                        "weiduming": "常住城市类别",
+                        "yonghuxinxi": "一线城市"
+                    },
+                    {
+                        "edu": 0,
+                        "guize": "一致:25000; 不一致:0",
+                        "weiduming": "手机号码归属地与居住地/公司地址是否一致",
+                        "yonghuxinxi": "不一致"
+                    }
+                ]
+            },
+            {
+                "mokuai": "信用卡",
+                "weidu": [
+                    {
+                        "edu": 1000,
+                        "guize": "信用卡额度使用率≤50%:min(（信用卡最大使用额度*（1-信用卡额度平均使用率)*0.8）/10000；信用卡额度使用率&gt;50%; (max(信用卡最大信用额度*0.2,信用卡最大信用额度*(1-信用卡额度平均使用率)*0.8))/10000,3); 不能获取信用卡使用额度：min((信用卡最大还款金额*0.5)/10000 * 10000, 3)",
+                        "weiduming": "信用卡",
+                        "yonghuxinxi": "2000"
+                    }
+                ]
+            },
+            {
+                "mokuai": "用户行为",
+                "weidu": [
+                    {
+                        "edu": 0,
+                        "guize": "10天及以内:0; 11-15天:500; 16-30天:2000; 31-60天:3000; 61天及以上:5000",
+                        "weiduming": "登陆天数",
+                        "yonghuxinxi": "0"
+                    }
+                ]
+            },
+            {
+                "mokuai": "负债",
+                "weidu": [
+                    {
+                        "edu": -20000,
+                        "guize": "(max(-(近一年应还贷款总额)*0.5/10000, -10))*10000",
+                        "weiduming": "负债",
+                        "yonghuxinxi": "40000"
+                    }
+                ]
+            },
+            {
+                "mokuai": "征信情况",
+                "weidu": [
+                    {
+                        "edu": -20000,
+                        "guize": "0次:0; 1-3次: -5000; 4-6次:-10000; 7次及以上:-20000",
+                        "weiduming": "5年内信用卡逾期",
+                        "yonghuxinxi": "8"
+                    },
+                    {
+                        "edu": -30000,
+                        "guize": "0条:0; 1-3条:-10000; 4-5条:-20000; 6条及以上:-30000",
+                        "weiduming": "电信欠费条数",
+                        "yonghuxinxi": "7"
+                    }
+                ]
+            },
+            {
+                "mokuai": "风险评分",
+                "weidu": [
+                    {
+                        "edu": 1.1200000047683716,
+                        "guize": "（芝麻分-550分）*0.0008+1",
+                        "weiduming": "芝麻分数",
+                        "yonghuxinxi": "700"
+                    }
+                ]
+            },
+            {
+                "mokuai": "反欺诈",
+                "weidu": [
+                    {
+                        "edu": 0.699999988079071,
+                        "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95;事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8;事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7;事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库':0.5",
+                        "weiduming": "同盾结果系数",
+                        "yonghuxinxi": "60"
+                    }
+                ]
             }
-        }
+        ],
+        "identity_card": "442001197001011105",
+        "mobile_phone": "13607766105",
+        "real_name": "微担保授信场景5"
+    },
+    "Role": 3,
+    "Type": 1
     }
+  }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-  "friend_request":{
-    "update_time":1447654250,
-    "handle_type":120,
-    "json":{
-       "UserID": "a01980ca-c557-4382-9e34-93b79a3a9d66",
-       "IdentitytCard": "022001196101170001",
-       "RealName": "A用户",
-       "Phone": "13600000001",
-       "IsProve": 1,
-       "PhoneFiendList": [
-        {
-            "UserID": "b01980ca-c557-4382-9e34-93b79a3a9d66",
-            "IdentitytCard": "022002196101170001",
-            "RealName": "B用户",
-            "Phone": "13600000002",
-            "IsProve": 1,
-            "Type": 1,
-            "Coincide": 0.3
-        }
-    ]
-   }
-  }
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"FunctionCode":"100122","CurrentTime":"20150723203212000000","MsgBody":{"user_id":"abc123456","ProjectId":"123","identity_card":"003001195901160031","idtype":"0","name":"陈刚","bank_cart":"12345","reasonno":"04","blackBox":"123","ip":"192.168.1.122","account_login":"test123","mobile_phone":"18675559750","loanType":"99","currency":"23232","loanMoney":10000,"loanTimeLimit":12,"applyDate":"2015-08-01","assureType":"D","creditAddress":"北京","is_student":1,"is_first_time":0,"degree":"本科","RELATION_VERIFICATION":[{"relation_name":"陈刚","relation_phone":"18675559750"},{"relation_name":"","relation_phone":""}]}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "friend_request":  {
-    "update_time":1447654250,
-    "handle_type":120,
-    "json":    {
-    "UserID": "c01980ca-c557-4382-9e34-93b79a3a9d66",
-    "IdentitytCard": "022003196101170001",
-    "RealName": "C用户",
-    "Phone": "13600000003",
-    "IsProve": 1,
-    "PhoneFiendList": [
-        {
-            "UserID": "a01980ca-c557-4382-9e34-93b79a3a9d66",
-            "IdentitytCard": "022001196101170001",
-            "RealName": "A用户",
-            "Phone": "13600000001",
-            "IsProve": 1,
-            "Type": 1,
-            "Coincide": 0.3
-        }
-    ]
-}
-  }
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-    "MQMOCK": {
-        "blacklist": [
-            {
-                "_id": {
-                    "$oid": "55dd907455c5496b54233eca"
-                },
-                "crawldataupdatedate": "20150827200322",
-                "shouldpayments": "",
-                "totalborrowamount": "",
-                "link_man_relation": "",
-                "link_man_mobile_no": "",
-                "updatedate": "2015-08-27",
-                "company_address": "",
-                "last_overdue_borrow_date": "",
-                "sex": "男",
-                "phone": "",
-                "overduepayout": "30,480.00",
-                "reference_link": "",
-                "user": "",
-                "lenders": "",
-                "mobilephone": "18675559750",
-                "last_borrowtime": "",
-                "max_overduedays": "76",
-                "company_phone": "",
-                "birth_address": "",
-                "name": "陈刚",
-                "identity_card": "003002196101160031",
-                "living_address": "惠州市上排龙八啤酒厂5栋301",
-                "overdueno": "1",
-                "company_name": "",
-                "cumulateadvancement": "0",
-                "link_man_name": "",
-                "email": "hzhuirong23@sina.com",
-                "refundmoney": ""
+    "danbao_request": {
+        "update_time": 1447654250,
+        "handle_type": 3,
+        "json": {"CardInfo":[{"MaxReturnAmount":1000},{"MaxReturnAmount":2000},{"MaxReturnAmount":2000}],"EnterpRegistrInfo":{"EnterpRegistrCapital":0,"IsEnterprisLegalPerson":0},"FamilyInfo":{"IsHaveChildren":1,"MarriageType":1},"LivingInfo":{"AddressType":1,"LivingAddress":"null","LivingCity":"桂林市","LivingProvince":"广西壮族自治区"},"PostPhoneList":{"AddressList":"[{\"phone\":\"13410979700\",\"name\":\"罗春0\",\"email\":\"\"},{\"phone\":\"13410979701\",\"name\":\"罗春1\",\"email\":\"\"},{\"phone\":\"13410979702\",\"name\":\"罗春2\",\"email\":\"\"},{\"phone\":\"13410979703\",\"name\":\"罗春3\",\"email\":\"\"},{\"phone\":\"13410979704\",\"name\":\"罗春4\",\"email\":\"\"},{\"phone\":\"13410979705\",\"name\":\"罗春5\",\"email\":\"\"},{\"phone\":\"134109749706\",\"name\":\"罗春6\",\"email\":\"\"},{\"phone\":\"13410979707\",\"name\":\"罗春7\",\"email\":\"\"},{\"phone\":\"13410979708\",\"name\":\"罗春8\",\"email\":\"\"},{\"phone\":\"13410979709\",\"name\":\"罗春9\",\"email\":\"\"},{\"phone\":\"13410979710\",\"name\":\"罗春10\",\"email\":\"\"},{\"phone\":\"13410979711\",\"name\":\"罗春11\",\"email\":\"\"},{\"phone\":\"13410979712\",\"name\":\"罗春12\",\"email\":\"\"},{\"phone\":\"13410979713\",\"name\":\"罗春13\",\"email\":\"\"},{\"phone\":\"13410979714\",\"name\":\"罗春14\",\"email\":\"\"},{\"phone\":\"13410979715\",\"name\":\"罗春15\",\"email\":\"\"},{\"phone\":\"13410979716\",\"name\":\"罗春16\",\"email\":\"\"},{\"phone\":\"13410979717\",\"name\":\"罗春17\",\"email\":\"\"},{\"phone\":\"13410979718\",\"name\":\"罗春18\",\"email\":\"\"},{\"phone\":\"13410979719\",\"name\":\"罗春19\",\"email\":\"\"},{\"phone\":\"13410979720\",\"name\":\"罗春20\",\"email\":\"\"},{\"phone\":\"13410979721\",\"name\":\"罗春21\",\"email\":\"\"},{\"phone\":\"13410979722\",\"name\":\"罗春22\",\"email\":\"\"},{\"phone\":\"13410979723\",\"name\":\"罗春23\",\"email\":\"\"},{\"phone\":\"13410979724\",\"name\":\"罗春24\",\"email\":\"\"},{\"phone\":\"13410979725\",\"name\":\"罗春25\",\"email\":\"\"},{\"phone\":\"13410979726\",\"name\":\"罗春26\",\"email\":\"\"},{\"phone\":\"13410979727\",\"name\":\"罗春27\",\"email\":\"\"},{\"phone\":\"13410979728\",\"name\":\"罗春28\",\"email\":\"\"},{\"phone\":\"13410979729\",\"name\":\"罗春29\",\"email\":\"\"},{\"phone\":\"13410979730\",\"name\":\"罗春30\",\"email\":\"\"},{\"phone\":\"13410979731\",\"name\":\"罗春31\",\"email\":\"\"},{\"phone\":\"13410979732\",\"name\":\"罗春32\",\"email\":\"\"},{\"phone\":\"13410979733\",\"name\":\"罗春33\",\"email\":\"\"},{\"phone\":\"13410979734\",\"name\":\"罗春34\",\"email\":\"\"},{\"phone\":\"13410979735\",\"name\":\"罗春35\",\"email\":\"\"},{\"phone\":\"13410979736\",\"name\":\"罗春36\",\"email\":\"\"},{\"phone\":\"13410979737\",\"name\":\"罗春37\",\"email\":\"\"},{\"phone\":\"13410979738\",\"name\":\"罗春38\",\"email\":\"\"},{\"phone\":\"13410979739\",\"name\":\"罗春39\",\"email\":\"\"},{\"phone\":\"13410979740\",\"name\":\"罗春40\",\"email\":\"\"},{\"phone\":\"13410979741\",\"name\":\"罗春41\",\"email\":\"\"},{\"phone\":\"13410979742\",\"name\":\"罗春42\",\"email\":\"\"},{\"phone\":\"13410979743\",\"name\":\"罗春43\",\"email\":\"\"},{\"phone\":\"13410979744\",\"name\":\"罗春44\",\"email\":\"\"},{\"phone\":\"13410979745\",\"name\":\"罗春45\",\"email\":\"\"},{\"phone\":\"13410979746\",\"name\":\"罗春46\",\"email\":\"\"},{\"phone\":\"13410979747\",\"name\":\"罗春47\",\"email\":\"\"},{\"phone\":\"13410979748\",\"name\":\"罗春48\",\"email\":\"\"},{\"phone\":\"13410979749\",\"name\":\"罗春49\",\"email\":\"\"},{\"phone\":\"13410979750\",\"name\":\"罗春50\",\"email\":\"\"}]","PhoneListDate":"20151012100943000001"},"PropertyInfo":{"Car":1,"CarList":[],"House":1,"HouseList":[{"HouseProvince":"广西壮族自治区","HouseCity":"桂林市"}]},"StudentCertification":{"DegreeType":1,"EducationApplyType":0,"GraduateDate":"20140628000000000006","IsVerify":true},"StudentInfo":{},"UserBasicInfo":{"IdentityCard":"450300199001011101","IsDCredit":1,"IsJCredit":0,"Istuandai":0,"RealName":"微担保授信场景1","RegisterTime":"20151009143853000005","Sex":1,"TelNo":"13077660101","UserId":"360121af-1fef-44f9-84b9-72cb19cad102","UserStatus":33,"UserType":1},"WorkInfo":{"Income":0,"IncomeTypeId":20.00,"PositionLevel":1,"CompanyProvince":"广东省","CompanyCity":"深圳市","WorkYears":0}}
             }
-        ],
-        "qianhai_credit": {},
-        "qianhai_black_check": {},
-        "tongdun_loan": {},
-        "laolai_crawler": [],
-        "bairong_credit": {}
-    }
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-    {
-        "userbasicinfo": {
-            "userid": "absdfggery",
-            "UserStatus": 0,
-            "UserType": "1",
-            "UserIDCard": "003002196101160031",
-            "UserRealName": "陈刚",
-            "MobilePhone": 18675559750
-        }
-    },
-    {
-        "FunctionCode": "100122",
-        "CurrentTime": "20150723203212000000",
-        "MsgBody": {
-            "user_id": "abc123456",
-            "ProjectId": "123",
-            "identity_card": "003002196101160031",
-            "idtype": "0",
-            "name": "陈刚",
-            "bank_cart": "12345",
-            "reasonno": "04",
-            "blackBox": "123",
-            "ip": "192.168.1.122",
-            "account_login": "test123",
-            "mobile_phone": "18675559750",
-            "loanType": "99",
-            "currency": "23232",
-            "loanMoney": 10000,
-            "loanTimeLimit": 12,
-            "applyDate": "2015-08-01",
-            "assureType": "D",
-            "creditAddress": "北京",
-            "is_student": 1,
-            "is_first_time": 0,
-            "degree": "本科",
-            "RELATION_VERIFICATION": [
-                {
-                    "relation_name": "陈刚",
-                    "relation_phone": "18675559750"
-                },
-                {
-                    "relation_name": "",
-                    "relation_phone": ""
-                }
-            ]
-        }
-    }
-]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":0,
-    "is_success":1,
-    "cur_credit":5300,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "fCredit":5282.6396484375,
-      "iCredit":5300,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":200,
-              "guize":"男:200 ; 女:400",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":3000,
-              "guize":"大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"普通本科"
-            },
-            {
-              "edu":200,
-              "guize":"1年以内（含1年，且&amp;gt;=6个月）:200 ; 1年以上:400",
-              "weiduming":"距离毕业时长",
-              "yonghuxinxi":"8"
-            },
-            {
-              "edu":0,
-              "guize":"是:1000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":200,
-              "guize":"一线城市:0 ; 二线城市:100 ; 其它:200",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省汕头市"
-            },
-            {
-              "edu":0,
-              "guize":"一线城市:100 ; 二线城市:200 ; 其它:0",
-              "weiduming":"学校地址城市类别",
-              "yonghuxinxi":"河源"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
-              "weiduming":"通讯录",
-              "yonghuxinxi":"100"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.8999999761581421,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"20"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -9270,63 +9327,6 @@
             "spend_time": 164,
             "success": true
         }
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景4",
-                "TelNo": "18675559704",
-                "IdentityCard": "450100196101011004",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 2
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "StudentInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "广州市",
-                "GraduateDate": "20160920165834000004",
-                "EduSchool": "中山大学",
-                "EduRecord": "本科"
-            }
-        }
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "usermodelhistory": {
-        "modelName": "额度资格",
-        "modelResult": "1",
-        "status": "0",
-        "errorInfo": "自有黑名单命中",
-        "realName": "陈刚",
-        "mobilePhone": "18675559750",
-        "identityCard": "003002196101160031",
-        "modelType": 3,
-        "AppID": "abc123456"
-    },
-    "HTTPEXP": {
-        "Messge": "success",
-        "Status": "0"
-    },
-    "ResultJson": {
-        "Status": "0",
-        "model_Result": "1"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -9806,7 +9806,7 @@
   <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -16421,7 +16421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
@@ -16488,13 +16488,13 @@
         <v>618</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>1123</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="280.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16517,7 +16517,7 @@
         <v>618</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -19226,7 +19226,7 @@
         <v>970</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>971</v>
@@ -19278,7 +19278,7 @@
         <v>970</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>978</v>
@@ -19496,7 +19496,7 @@
         <v>970</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>1001</v>
@@ -19551,7 +19551,7 @@
         <v>1008</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19574,7 +19574,7 @@
         <v>970</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>1011</v>
@@ -20012,9 +20012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20082,16 +20082,16 @@
         <v>970</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1111</v>
+        <v>1126</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -20116,7 +20116,7 @@
         <v>970</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>1094</v>
@@ -20145,13 +20145,13 @@
         <v>970</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20174,13 +20174,13 @@
         <v>970</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>1094</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20209,7 +20209,7 @@
         <v>1094</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20261,7 +20261,7 @@
         <v>970</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1102</v>

--- a/TestCase_bak.xlsx
+++ b/TestCase_bak.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="UPSLabel" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="CCS_WDB" sheetId="7" r:id="rId7"/>
     <sheet name="QDP" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1135">
   <si>
     <t>TestId</t>
   </si>
@@ -3234,3276 +3234,118 @@
     <t>CCS_ZH</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "identity_card":"110000196101011001",
-    "real_name":"综合授信学生场景1",
-    "moble_phone":"18675559701",
-    "is_success":2,
-    "cur_credit":0,
-    "BASE64_sum_info":    {
-      "error_info":"无法验证大专以下学生人群的信息,不对大专以下学生人群做授信"
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景2-综合授信学生用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_002</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景2",
-                "TelNo": "18675559702",
-                "IdentityCard": "450100196101011002",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 2
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "StudentInfo": {
-                "LivingProvince": "广西壮族自治区",
-                "LivingCity": "南宁市",
-                "GraduateDate": "20180720165834000004",
-                "EduSchool": "大学专科",
-                "EduRecord": "专科"
-            }
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "niiwoo_d_history":  {
-    "user_type":0,
-    "is_success":1,
-    "cur_credit":6000,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "fCredit":5985,
-      "iCredit":6000,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":400,
-              "guize":"男:200 ; 女:400",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":1400,
-              "guize":"大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"大专"
-            },
-            {
-              "edu":400,
-              "guize":"1年以内（含1年，且&amp;gt;=6个月）:200 ; 1年以上:400",
-              "weiduming":"距离毕业时长",
-              "yonghuxinxi":"30"
-            },
-            {
-              "edu":1000,
-              "guize":"是:1000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":100,
-              "guize":"一线城市:0 ; 二线城市:100 ; 其它:200",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区南宁市"
-            },
-            {
-              "edu":200,
-              "guize":"一线城市:100 ; 二线城市:200 ; 其它:0",
-              "weiduming":"学校地址城市类别",
-              "yonghuxinxi":"南宁"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
-              "weiduming":"通讯录",
-              "yonghuxinxi":"20"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.7999999523162842,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"950"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.949999988079071,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"10"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>场景3-综合授信学生用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_003</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景3",
-                "TelNo": "18675559703",
-                "IdentityCard": "440500196101011003",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 1
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "StudentInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "河源市",
-                "GraduateDate": "20160920165834000004",
-                "EduSchool": "大学本科",
-                "EduRecord": "本科"
-            }
-        }
-    }
-}</t>
-  </si>
-  <si>
     <t>场景4-综合授信学生用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_004</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":0,
-    "is_success":1,
-    "cur_credit":6100,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "fCredit":6124.7998046875,
-      "iCredit":6100,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":400,
-              "guize":"男:200 ; 女:400",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":4000,
-              "guize":"大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"(211,985)本科"
-            },
-            {
-              "edu":200,
-              "guize":"1年以内（含1年，且&amp;gt;=6个月）:200 ; 1年以上:400",
-              "weiduming":"距离毕业时长",
-              "yonghuxinxi":"8"
-            },
-            {
-              "edu":0,
-              "guize":"是:1000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":100,
-              "guize":"一线城市:0 ; 二线城市:100 ; 其它:200",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区南宁市"
-            },
-            {
-              "edu":100,
-              "guize":"一线城市:100 ; 二线城市:200 ; 其它:0",
-              "weiduming":"学校地址城市类别",
-              "yonghuxinxi":"广州"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":1200,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
-              "weiduming":"通讯录",
-              "yonghuxinxi":"200"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.800000011920929,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"40"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景5-综合授信学生用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_005</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景5",
-                "TelNo": "18675559705",
-                "IdentityCard": "450900196101011005",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 1
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "-1"
-            },
-            "StudentInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "佛山市",
-                "GraduateDate": "20180920165834000004",
-                "EduSchool": "仲恺学院",
-                "EduRecord": "硕士研究生"
-            }
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "niiwoo_d_history":  {
-    "user_type":0,
-    "is_success":1,
-    "cur_credit":6300,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "fCredit":6252.39990234375,
-      "fCreditDeFen":31.261999130249023,
-      "iCredit":6300,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":200,
-              "guize":"男:200 ; 女:400",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":6000,
-              "guize":"大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"硕士"
-            },
-            {
-              "edu":400,
-              "guize":"1年以内（含1年，且&amp;gt;=6个月）:200 ; 1年以上:400",
-              "weiduming":"距离毕业时长",
-              "yonghuxinxi":"32"
-            },
-            {
-              "edu":0,
-              "guize":"是:1000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":200,
-              "guize":"一线城市:0 ; 二线城市:100 ; 其它:200",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区玉林市"
-            },
-            {
-              "edu":200,
-              "guize":"一线城市:100 ; 二线城市:200 ; 其它:0",
-              "weiduming":"学校地址城市类别",
-              "yonghuxinxi":"佛山"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
-              "weiduming":"通讯录",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.699999988079071,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"60"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>场景6-综合授信学生用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_006</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景6",
-                "TelNo": "18675559706",
-                "IdentityCard": "450700196101011006",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 2
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "StudentInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "广州市",
-                "GraduateDate": "20180920165834000004",
-                "EduSchool": "仲恺学院",
-                "EduRecord": "博士研究生"
-            }
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":0,
-    "is_success":1,
-    "cur_credit":10200,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":2,
-      "fCredit":10170,
-      "fCreditDeFen":50.849998474121094,
-      "iCredit":10200,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":400,
-              "guize":"男:200 ; 女:400",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":9000,
-              "guize":"大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"博士及以上"
-            },
-            {
-              "edu":400,
-              "guize":"1年以内（含1年，且&amp;gt;=6个月）:200 ; 1年以上:400",
-              "weiduming":"距离毕业时长",
-              "yonghuxinxi":"32"
-            },
-            {
-              "edu":0,
-              "guize":"是:1000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":200,
-              "guize":"一线城市:0 ; 二线城市:100 ; 其它:200",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区钦州市"
-            },
-            {
-              "edu":100,
-              "guize":"一线城市:100 ; 二线城市:200 ; 其它:0",
-              "weiduming":"学校地址城市类别",
-              "yonghuxinxi":"广州"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":1200,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
-              "weiduming":"通讯录",
-              "yonghuxinxi":"200"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.7999999523162842,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.5,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"80"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景8-有业非团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_008</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信非团贷场景8",
-                "TelNo": "18675559708",
-                "IdentityCard": "440300199201011008",
-                "CardType": 1,
-                "Sex": 1
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "深圳市",
-                "AddressType": 1
-            },
-            "StudentCertification": {
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 1
-            },
-            "FamilyInfo": {
-                "MarriageType": 1
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 3
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "-1"
-            },
-            "CardInfo": [{"MaxReturnAmount": 2000},
-                         {"MaxReturnAmount": 1000}]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":2,
-    "is_success":1,
-    "cur_credit":6500,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":0,
-      "fCredit":6513,
-      "fCreditDeFen":13.026000022888184,
-      "iCredit":6500,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
-              "weiduming":"学籍",
-              "yonghuxinxi":"大专以下"
-            },
-            {
-              "edu":250,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":750,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"24"
-            },
-            {
-              "edu":1000,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"已婚"
-            },
-            {
-              "edu":2500,
-              "guize":"是:2500 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"3"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"自有"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省深圳市"
-            },
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"深圳"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":2,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"2000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.0019999742507935,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"551"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":1,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"0"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景9-有业非团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_009</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信非团贷场景9",
-                "TelNo": "18675559709",
-                "IdentityCard": "450100198501011009",
-                "CardType": 1,
-                "Sex": 2
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "佛山市",
-                "AddressType": 3
-            },
-            "StudentCertification": {
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 2
-            },
-            "FamilyInfo": {
-                "MarriageType": 0
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 6
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 2000.89}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":2,
-    "is_success":1,
-    "cur_credit":12400,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":0,
-      "fCredit":12398.259765625,
-      "fCreditDeFen":24.796520233154297,
-      "iCredit":12400,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
-              "weiduming":"学籍",
-              "yonghuxinxi":"大专"
-            },
-            {
-              "edu":500,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":1000,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"31"
-            },
-            {
-              "edu":750,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"未婚"
-            },
-            {
-              "edu":0,
-              "guize":"是:2500 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"6"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"20"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"父母同住"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区南宁市"
-            },
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"佛山"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":2.000890016555786,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"2000.89001"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.7999999523162842,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"950"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.949999988079071,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"10"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景10-有业非团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_010</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信非团贷场景10",
-                "TelNo": "18675559710",
-                "IdentityCard": "450900196101011010",
-                "CardType": 1,
-                "IsTuandai": 0,
-                "Sex": 1
-            },
-            "LivingInfo": {
-                "LivingProvince": "广西壮族自治区",
-                "LivingCity": "玉林市",
-                "AddressType": 2
-            },
-            "StudentCertification": {
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 3
-            },
-            "FamilyInfo": {
-                "MarriageType": 2
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 12
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 0}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
     <t>场景11-有业非团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_011</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信非团贷场景11",
-                "TelNo": "18675559711",
-                "IdentityCard": "110000199301011011",
-                "CardType": 1,
-                "IsTuandai": 0,
-                "Sex": 2
-            },
-            "LivingInfo": {
-                "LivingProvince": "广西壮族自治区",
-                "LivingCity": "玉林市",
-                "AddressType": 4
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 3
-            },
-            "FamilyInfo": {
-                "MarriageType": 3
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 20
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 0}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":2,
-    "is_success":1,
-    "cur_credit":11800,
-    "BASE64_sum_info":    {
-      "iCredit":11800,
-      "error_code":0,
-      "error_info":"成功",
-      "event":1,
-      "fCredit":11760,
-      "fCreditDeFen":23.520000457763672,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":4000,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
-              "weiduming":"学籍",
-              "yonghuxinxi":"(211,985)本科"
-            },
-            {
-              "edu":500,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":750,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"23"
-            },
-            {
-              "edu":500,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"其他"
-            },
-            {
-              "edu":0,
-              "guize":"是:2500 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":1250,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"20"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":2500,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"100"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"学校/单位宿舍"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"北京市"
-            },
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"玉林"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.399999976158142,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"750"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.800000011920929,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"40"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景12-有业非团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_012</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信非团贷场景12",
-                "TelNo": "18675559712",
-                "IdentityCard": "450700197601011012",
-                "CardType": 1,
-                "IsTuandai": 0,
-                "Sex": 2
-            },
-            "LivingInfo": {
-                "LivingProvince": "广西壮族自治区",
-                "LivingCity": "玉林市",
-                "AddressType": 5
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 4
-            },
-            "FamilyInfo": {
-                "MarriageType": 0
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 50
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 200},
-                {"MaxReturnAmount": 1000}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":2,
-    "is_success":1,
-    "cur_credit":14300,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":1,
-      "fCredit":14280,
-      "fCreditDeFen":28.559999465942383,
-      "iCredit":14300,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":4500,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
-              "weiduming":"学籍",
-              "yonghuxinxi":"硕士"
-            },
-            {
-              "edu":500,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":1000,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"40"
-            },
-            {
-              "edu":750,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"未婚"
-            },
-            {
-              "edu":0,
-              "guize":"是:2500 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"50"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":2500,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"113"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"其他"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区钦州市"
-            },
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"玉林"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":1,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.600000023841858,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"850"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.699999988079071,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"60"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景13-有业非团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_013</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信非团贷场景13",
-                "TelNo": "18675559713",
-                "IdentityCard": "441900196101011013",
-                "CardType": 1,
-                "IsTuandai": 0,
-                "Sex": 1
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "东莞市",
-                "AddressType": 4
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 5
-            },
-            "FamilyInfo": {
-                "MarriageType": 1
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 60
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 200}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":2,
-    "is_success":1,
-    "cur_credit":13800,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":2,
-      "fCredit":13815,
-      "fCreditDeFen":27.6299991607666,
-      "iCredit":13800,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":5500,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
-              "weiduming":"学籍",
-              "yonghuxinxi":"博士及以上"
-            },
-            {
-              "edu":250,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":500,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"55"
-            },
-            {
-              "edu":1000,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"已婚"
-            },
-            {
-              "edu":2500,
-              "guize":"是:2500 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":2000,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"60"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":2500,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"113"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"学校/单位宿舍"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省东莞市"
-            },
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"东莞"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":0.20000000298023224,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"200"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.7999999523162842,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.5,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"80"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景15-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_015</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景15",
-                "TelNo": "18675559715",
-                "IdentityCard": "440100199301011015",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 1
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "广州市",
-                "AddressType": 1
-            },
-            "StudentCertification": {
-                "GraduateSchool": "河北大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 1
-            },
-            "FamilyInfo": {
-                "MarriageType": 1
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 3
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "-1"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 10000}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":12500,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":0,
-      "fCredit":12504.80078125,
-      "fCreditDeFen":25.009601593017578,
-      "iCredit":12500,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"大专以下"
-            },
-            {
-              "edu":250,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":750,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"23"
-            },
-            {
-              "edu":1000,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"已婚"
-            },
-            {
-              "edu":2000,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"3万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":750,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"自有"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省广州市"
-            },
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"广州"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":10,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"10000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":1,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"0"
-            },
-            {
-              "edu":0,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"5000"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":0.10000000149011612,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"300"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景16-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_016</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景16",
-                "TelNo": "18675559716",
-                "IdentityCard": "450100197501011016",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 2
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "佛山市",
-                "AddressType": 3
-            },
-            "StudentCertification": {
-                "GraduateSchool": "河北大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 2
-            },
-            "FamilyInfo": {
-                "MarriageType": 0
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 6
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 1000}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":8500,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":0,
-      "fCredit":8546.009765625,
-      "fCreditDeFen":17.09202003479004,
-      "iCredit":8500,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"大专"
-            },
-            {
-              "edu":500,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":500,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"41"
-            },
-            {
-              "edu":750,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"未婚"
-            },
-            {
-              "edu":0,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"6万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"20"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"父母同住"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区南宁市"
-            },
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"佛山"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":1,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.949999988079071,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"10"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"1"
-            },
-            {
-              "edu":250,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"10000"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":0.10000000149011612,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"300"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景17-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_017</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景17",
-                "TelNo": "18675559717",
-                "IdentityCard": "450900196101011017",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 1
-            },
-            "LivingInfo": {
-                "LivingProvince": "广西壮族自治区",
-                "LivingCity": "玉林市",
-                "AddressType": 2
-            },
-            "StudentCertification": {
-                "GraduateSchool": "河北大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 3
-            },
-            "FamilyInfo": {
-                "MarriageType": 2
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 12
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 1000}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":11800,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":1,
-      "fCredit":11828.51953125,
-      "fCreditDeFen":23.657039642333984,
-      "iCredit":11800,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":2000,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"普通本科"
-            },
-            {
-              "edu":250,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":500,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"55"
-            },
-            {
-              "edu":250,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"离异"
-            },
-            {
-              "edu":2000,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"12万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"50"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"租房"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区玉林市"
-            },
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"玉林"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":1,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.8999999761581421,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"20"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":750,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"2"
-            },
-            {
-              "edu":500,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"50000"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":0.10000000149011612,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"300"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景18-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_018</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景18",
-                "TelNo": "18675559718",
-                "IdentityCard": "440300199301011018",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 2
-            },
-            "LivingInfo": {
-                "LivingProvince": "广西壮族自治区",
-                "LivingCity": "黄山市",
-                "AddressType": 4
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 3
-            },
-            "FamilyInfo": {
-                "MarriageType": 3
-           },
-            "WorkInfo": {
-                "IncomeTypeId": 20
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 3000.58}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":13100,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":1,
-      "fCredit":13066.5361328125,
-      "fCreditDeFen":26.133071899414062,
-      "iCredit":13100,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":3500,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"(211,985)本科"
-            },
-            {
-              "edu":500,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":750,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"23"
-            },
-            {
-              "edu":500,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"其他"
-            },
-            {
-              "edu":0,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":1250,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"20万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"100"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"学校/单位宿舍"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省深圳市"
-            },
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"黄山"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":3.000580072402954,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"3000.58008"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.800000011920929,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"40"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"3"
-            },
-            {
-              "edu":750,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"100000"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":0.10000000149011612,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"300"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景19-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_019</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景19",
-                "TelNo": "18675559719",
-                "IdentityCard": "450700198101011019",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 2
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "深圳市",
-                "AddressType": 5
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 4
-            },
-            "FamilyInfo": {
-                "MarriageType": 0
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 50
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 1000}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":12300,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":1,
-      "fCredit":12326.16015625,
-      "fCreditDeFen":24.652320861816406,
-      "iCredit":12300,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":4500,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"硕士"
-            },
-            {
-              "edu":500,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":1000,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"35"
-            },
-            {
-              "edu":750,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"未婚"
-            },
-            {
-              "edu":0,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"50万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":2500,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"200"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"其他"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区钦州市"
-            },
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"深圳"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":1,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.699999988079071,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"60"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"0"
-            },
-            {
-              "edu":1000,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"200000"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":0.10000000149011612,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"300"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景20-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_020</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景20",
-                "TelNo": "18675559720",
-                "IdentityCard": "450300196201011020",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 1
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "深圳市",
-                "AddressType": 4
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 5
-            },
-            "FamilyInfo": {
-                "MarriageType": 1
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 51
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 2000}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":12200,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":2,
-      "fCredit":12195,
-      "fCreditDeFen":24.389999389648438,
-      "iCredit":12200,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":5000,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"博士及以上"
-            },
-            {
-              "edu":250,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":500,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"54"
-            },
-            {
-              "edu":1000,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"已婚"
-            },
-            {
-              "edu":0,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":2000,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"51万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"101"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"学校/单位宿舍"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广西壮族自治区桂林市"
-            },
-            {
-              "edu":0,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"深圳"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":2,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"2000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.7999999523162842,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.5,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"80"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"1"
-            },
-            {
-              "edu":500,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"50000"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":0.10000000149011612,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"300"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景21-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_021</t>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景21",
-                "TelNo": "18675559721",
-                "IdentityCard": "440500198101011021",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 2
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "汕头市",
-                "AddressType": 3
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 5
-            },
-            "FamilyInfo": {
-                "MarriageType": 1
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 51
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 10000}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":50000,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":0,
-      "fCredit":50000,
-      "fCreditDeFen":100,
-      "iCredit":50000,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":5000,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"博士及以上"
-            },
-            {
-              "edu":500,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"女"
-            },
-            {
-              "edu":1000,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"35"
-            },
-            {
-              "edu":1000,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"已婚"
-            },
-            {
-              "edu":2000,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":2000,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"51万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":2500,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"200"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":1500,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"父母同住"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省汕头市"
-            },
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"汕头"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":10,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"10000"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.7999999523162842,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":1,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"3"
-            },
-            {
-              "edu":1000,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"200000"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":240,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"600000"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-  </si>
-  <si>
     <t>场景22-有业团贷用户</t>
   </si>
   <si>
     <t>TestCCS_zhongheshouxin_022</t>
-  </si>
-  <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 32,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信团贷场景22",
-                "TelNo": "18675559722",
-                "IdentityCard": "440500196101011022",
-                "CardType": 1,
-                "IsTuandai": 1,
-                "Sex": 1
-            },
-            "LivingInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "东莞市",
-                "AddressType": 2
-            },
-            "StudentCertification": {
-                "GraduateSchool": "北京大学",
-                "GraduateDate": "20150720165834000004",
-                "DegreeType": 0
-            },
-            "FamilyInfo": {
-                "MarriageType": 2
-            },
-            "WorkInfo": {
-                "IncomeTypeId": 3
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "-1"
-            },
-            "CardInfo": [
-                {"MaxReturnAmount": 0}
-            ]
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":1,
-    "is_success":1,
-    "cur_credit":2800,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "error_info":"成功",
-      "event":1,
-      "fCredit":2834.999755859375,
-      "fCreditDeFen":5.669999599456787,
-      "iCredit":2800,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"大专以下"
-            },
-            {
-              "edu":250,
-              "guize":"男:250 ; 女:500",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":500,
-              "guize":"25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
-              "weiduming":"年龄",
-              "yonghuxinxi":"55"
-            },
-            {
-              "edu":250,
-              "guize":"已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
-              "weiduming":"婚姻状况",
-              "yonghuxinxi":"离异"
-            },
-            {
-              "edu":0,
-              "guize":"是:2000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"年收入",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"年收入&amp;lt;=3万:0 ; 3万&amp;lt;年收入&amp;lt;=6万:500 ; 7万&amp;lt;年收入&amp;lt;=12万:1000 ; 12万&amp;lt;年收入&amp;lt;=20万:1250 ; 20万&amp;lt;年收入&amp;lt;=50万:1500 ; 年收入&amp;gt;50万:2000",
-              "weiduming":"收入情况",
-              "yonghuxinxi":"3万"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
-              "weiduming":"电话号码数",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"住宅类型",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
-              "weiduming":"住宅信息",
-              "yonghuxinxi":"租房"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":500,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省汕头市"
-            },
-            {
-              "edu":250,
-              "guize":"一线城市:0 ; 二线城市:250 ; 其它:500",
-              "weiduming":"常住城市类别",
-              "yonghuxinxi":"东莞"
-            }
-          ]
-        },
-        {
-          "mokuai":"信用卡",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
-              "weiduming":"信用卡得分",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.7999999523162842,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"1000"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.699999988079071,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"60"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网行为",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&amp;gt;2次:1000 ;",
-              "weiduming":"近一年在团贷网的借款次数",
-              "yonghuxinxi":"0"
-            },
-            {
-              "edu":0,
-              "guize":"0元≤借款金额≤5000元:0 ; 5000元&amp;lt;借款金额≤10000元:250 ; 10000元&amp;lt;借款金额≤50000元:500 ; 50000元&amp;lt;借款金额≤100000元:750 ; 借款金额&amp;gt;100000元 :1000",
-              "weiduming":"近一年在团贷网的借款金额",
-              "yonghuxinxi":"0"
-            }
-          ]
-        },
-        {
-          "mokuai":"团贷网待收",
-          "weidu":          [
-            {
-              "edu":0,
-              "guize":"团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
-              "weiduming":"团贷网待收得分",
-              "yonghuxinxi":"0"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
   </si>
   <si>
     <t>TestCCS_WEIDANBAO_001</t>
@@ -8454,39 +5296,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景1",
-                "TelNo": "18675559701",
-                "IdentityCard": "110000196101011001",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 1
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "-1"
-            },
-            "StudentInfo": {
-                "LivingProvince": "北京市",
-                "LivingCity": "北京市",
-                "GraduateDate": "20160720165834000004",
-                "EduSchool": "新兴电大",
-                "EduRecord": "电大"
-            }
-        }
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">{
   "friend_request":{
     "update_time":1447654250,
@@ -8643,136 +5452,6 @@
         }
     }
 ]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "niiwoo_d_history":  {
-    "user_type":0,
-    "is_success":1,
-    "cur_credit":5300,
-    "BASE64_sum_info":    {
-      "error_code":0,
-      "fCredit":5282.6396484375,
-      "iCredit":5300,
-      "fanyilist":      [
-        {
-          "mokuai":"身份",
-          "weidu":          [
-            {
-              "edu":200,
-              "guize":"男:200 ; 女:400",
-              "weiduming":"性别",
-              "yonghuxinxi":"男"
-            },
-            {
-              "edu":3000,
-              "guize":"大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
-              "weiduming":"学籍",
-              "yonghuxinxi":"普通本科"
-            },
-            {
-              "edu":200,
-              "guize":"1年以内（含1年，且&amp;gt;=6个月）:200 ; 1年以上:400",
-              "weiduming":"距离毕业时长",
-              "yonghuxinxi":"8"
-            },
-            {
-              "edu":0,
-              "guize":"是:1000 ; 否:0",
-              "weiduming":"是否本地人",
-              "yonghuxinxi":"非本地人"
-            }
-          ]
-        },
-        {
-          "mokuai":"地址信息",
-          "weidu":          [
-            {
-              "edu":200,
-              "guize":"一线城市:0 ; 二线城市:100 ; 其它:200",
-              "weiduming":"身份证原始发证地城市类别",
-              "yonghuxinxi":"广东省汕头市"
-            },
-            {
-              "edu":0,
-              "guize":"一线城市:100 ; 二线城市:200 ; 其它:0",
-              "weiduming":"学校地址城市类别",
-              "yonghuxinxi":"河源"
-            }
-          ]
-        },
-        {
-          "mokuai":"通讯录",
-          "weidu":          [
-            {
-              "edu":1000,
-              "guize":"未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
-              "weiduming":"通讯录",
-              "yonghuxinxi":"100"
-            }
-          ]
-        },
-        {
-          "mokuai":"芝麻分",
-          "weidu":          [
-            {
-              "edu":1.2760000228881836,
-              "guize":"芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
-              "weiduming":"芝麻系数",
-              "yonghuxinxi":"688"
-            }
-          ]
-        },
-        {
-          "mokuai":"反欺诈",
-          "weidu":          [
-            {
-              "edu":0.8999999761581421,
-              "guize":"事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
-              "weiduming":"同盾结果系数",
-              "yonghuxinxi":"20"
-            }
-          ]
-        }
-      ]
-    }
-  }
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "credit_request": {
-        "update_time": 1447654250,
-        "handle_type": 1,
-        "json": {
-            "UserBasicInfo": {
-                "UserType": 1,
-                "UserStatus": 64,
-                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
-                "RealName": "综合授信学生场景4",
-                "TelNo": "18675559704",
-                "IdentityCard": "450100196101011004",
-                "CardType": 1,
-                "CardAddress": "证件地址",
-                "Sex": 2
-            },
-            "PostPhoneList": {
-                "PhoneListDate": "20150820165834000004",
-                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
-            },
-            "StudentInfo": {
-                "LivingProvince": "广东省",
-                "LivingCity": "广州市",
-                "GraduateDate": "20160920165834000004",
-                "EduSchool": "中山大学",
-                "EduRecord": "本科"
-            }
-        }
-    }
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -9331,6 +6010,3530 @@
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信非团贷场景8",
+                "TelNo": "18675559708",
+                "IdentityCard": "440300199201011008",
+                "CardType": 1,
+                "Sex": 1
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "深圳市",
+                "AddressType": 1
+            },
+            "StudentCertification": {
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 1
+            },
+            "FamilyInfo": {
+                "MarriageType": 1
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 3
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 2000
+                },
+                {
+                    "MaxReturnAmount": 1000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信非团贷场景9",
+                "TelNo": "18675559709",
+                "IdentityCard": "450100198501011009",
+                "CardType": 1,
+                "Sex": 2
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "佛山市",
+                "AddressType": 3
+            },
+            "StudentCertification": {
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 2
+            },
+            "FamilyInfo": {
+                "MarriageType": 0
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 6
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 2000.89
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信非团贷场景10",
+                "TelNo": "18675559710",
+                "IdentityCard": "450900196101011010",
+                "CardType": 1,
+                "IsTuandai": 0,
+                "Sex": 1
+            },
+            "LivingInfo": {
+                "LivingProvince": "广西壮族自治区",
+                "LivingCity": "玉林市",
+                "AddressType": 2
+            },
+            "StudentCertification": {
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 3
+            },
+            "FamilyInfo": {
+                "MarriageType": 2
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 12
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 0
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信非团贷场景11",
+                "TelNo": "18675559711",
+                "IdentityCard": "110000199301011011",
+                "CardType": 1,
+                "IsTuandai": 0,
+                "Sex": 2
+            },
+            "LivingInfo": {
+                "LivingProvince": "广西壮族自治区",
+                "LivingCity": "玉林市",
+                "AddressType": 4
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 3
+            },
+            "FamilyInfo": {
+                "MarriageType": 3
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 20
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 0
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信非团贷场景12",
+                "TelNo": "18675559712",
+                "IdentityCard": "450700197601011012",
+                "CardType": 1,
+                "IsTuandai": 0,
+                "Sex": 2
+            },
+            "LivingInfo": {
+                "LivingProvince": "广西壮族自治区",
+                "LivingCity": "玉林市",
+                "AddressType": 5
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 4
+            },
+            "FamilyInfo": {
+                "MarriageType": 0
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 50
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 200
+                },
+                {
+                    "MaxReturnAmount": 1000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景15",
+                "TelNo": "18675559715",
+                "IdentityCard": "440100199301011015",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 1
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "广州市",
+                "AddressType": 1
+            },
+            "StudentCertification": {
+                "GraduateSchool": "河北大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 1
+            },
+            "FamilyInfo": {
+                "MarriageType": 1
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 3
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 10000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景16",
+                "TelNo": "18675559716",
+                "IdentityCard": "450100197501011016",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 2
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "佛山市",
+                "AddressType": 3
+            },
+            "StudentCertification": {
+                "GraduateSchool": "河北大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 2
+            },
+            "FamilyInfo": {
+                "MarriageType": 0
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 6
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 1000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景17",
+                "TelNo": "18675559717",
+                "IdentityCard": "450900196101011017",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 1
+            },
+            "LivingInfo": {
+                "LivingProvince": "广西壮族自治区",
+                "LivingCity": "玉林市",
+                "AddressType": 2
+            },
+            "StudentCertification": {
+                "GraduateSchool": "河北大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 3
+            },
+            "FamilyInfo": {
+                "MarriageType": 2
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 12
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 1000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景18",
+                "TelNo": "18675559718",
+                "IdentityCard": "440300199301011018",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 2
+            },
+            "LivingInfo": {
+                "LivingProvince": "广西壮族自治区",
+                "LivingCity": "黄山市",
+                "AddressType": 4
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 3
+            },
+            "FamilyInfo": {
+                "MarriageType": 3
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 20
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 3000.58
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景19",
+                "TelNo": "18675559719",
+                "IdentityCard": "450700198101011019",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 2
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "深圳市",
+                "AddressType": 5
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 4
+            },
+            "FamilyInfo": {
+                "MarriageType": 0
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 50
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 1000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景20",
+                "TelNo": "18675559720",
+                "IdentityCard": "450300196201011020",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 1
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "深圳市",
+                "AddressType": 4
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 5
+            },
+            "FamilyInfo": {
+                "MarriageType": 1
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 51
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 2000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景21",
+                "TelNo": "18675559721",
+                "IdentityCard": "440500198101011021",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 2
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "汕头市",
+                "AddressType": 3
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 5
+            },
+            "FamilyInfo": {
+                "MarriageType": 1
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 51
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 10000
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信团贷场景22",
+                "TelNo": "18675559722",
+                "IdentityCard": "440500196101011022",
+                "CardType": 1,
+                "IsTuandai": 1,
+                "Sex": 1
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "东莞市",
+                "AddressType": 2
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 0
+            },
+            "FamilyInfo": {
+                "MarriageType": 2
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 3
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 0
+                }
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "niiwoo_j_history":  {
+    "identity_card":"110000196101011001",
+    "real_name":"综合授信学生场景1",
+    "moble_phone":"18675559701",
+    "is_success":2,
+    "cur_credit":0,
+    "BASE64_sum_info":    {
+      "error_info":"无法验证大专以下学生人群的信息,不对大专以下学生人群做授信"
+    }
+  }
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景1",
+                "TelNo": "18675559701",
+                "IdentityCard": "110000196101011001",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 1
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "StudentInfo": {
+                "LivingProvince": "北京市",
+                "LivingCity": "北京市",
+                "GraduateDate": "</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>",
+                "EduSchool": "新兴电大",
+                "EduRecord": "电大"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 0,
+        "is_success": 1,
+        "cur_credit": 6000,
+        "BASE64_result": {
+            "MsgBody": {
+                "cur_credit": 6000,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 400,
+                                "guize": "男:200 ; 女:400",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 1400,
+                                "guize": "大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "大专"
+                            },
+                            {
+                                "edu": 400,
+                                "guize": "1年以内（含1年，且&gt;=6个月）:200 ; 1年以上:400",
+                                "weiduming": "距离毕业时长",
+                                "yonghuxinxi": "15"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "是:1000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 100,
+                                "guize": "一线城市:0 ; 二线城市:100 ; 其它:200",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区南宁市"
+                            },
+                            {
+                                "edu": 200,
+                                "guize": "一线城市:100 ; 二线城市:200 ; 其它:0",
+                                "weiduming": "学校地址城市类别",
+                                "yonghuxinxi": "南宁"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
+                                "weiduming": "通讯录",
+                                "yonghuxinxi": "20"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.7999999523162842,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "950"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.949999988079071,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "10"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景2",
+                "TelNo": "18675559702",
+                "IdentityCard": "450100196101011002",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 2
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广西壮族自治区",
+                "LivingCity": "南宁市",
+                "GraduateDate": "</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>",
+                "EduSchool": "大学专科",
+                "EduRecord": "专科"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 0,
+        "is_success": 1,
+        "cur_credit": 5300,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 5300,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 200,
+                                "guize": "男:200 ; 女:400",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 3000,
+                                "guize": "大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "普通本科"
+                            },
+                            {
+                                "edu": 200,
+                                "guize": "1年以内（含1年，且&gt;=6个月）:200 ; 1年以上:400",
+                                "weiduming": "距离毕业时长",
+                                "yonghuxinxi": "7"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:1000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 200,
+                                "guize": "一线城市:0 ; 二线城市:100 ; 其它:200",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广东省汕头市"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:100 ; 二线城市:200 ; 其它:0",
+                                "weiduming": "学校地址城市类别",
+                                "yonghuxinxi": "河源"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
+                                "weiduming": "通讯录",
+                                "yonghuxinxi": "100"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.8999999761581421,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "20"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景3",
+                "TelNo": "18675559703",
+                "IdentityCard": "440500196101011003",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 1
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "河源市",
+                "GraduateDate": "</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>",
+                "EduSchool": "大学本科",
+                "EduRecord": "本科"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 0,
+        "is_success": 1,
+        "cur_credit": 6100,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 6100,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 400,
+                                "guize": "男:200 ; 女:400",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 4000,
+                                "guize": "大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "(211,985)本科"
+                            },
+                            {
+                                "edu": 200,
+                                "guize": "1年以内（含1年，且&gt;=6个月）:200 ; 1年以上:400",
+                                "weiduming": "距离毕业时长",
+                                "yonghuxinxi": "7"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:1000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 100,
+                                "guize": "一线城市:0 ; 二线城市:100 ; 其它:200",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区南宁市"
+                            },
+                            {
+                                "edu": 100,
+                                "guize": "一线城市:100 ; 二线城市:200 ; 其它:0",
+                                "weiduming": "学校地址城市类别",
+                                "yonghuxinxi": "广州"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 1200,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
+                                "weiduming": "通讯录",
+                                "yonghuxinxi": "200"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.800000011920929,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "40"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景4",
+                "TelNo": "18675559704",
+                "IdentityCard": "450100196101011004",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 2
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "广州市",
+                "GraduateDate": "</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>",
+                "EduSchool": "中山大学",
+                "EduRecord": "本科"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 0,
+        "is_success": 1,
+        "cur_credit": 6300,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 6300,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 200,
+                                "guize": "男:200 ; 女:400",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 6000,
+                                "guize": "大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "硕士"
+                            },
+                            {
+                                "edu": 400,
+                                "guize": "1年以内（含1年，且&gt;=6个月）:200 ; 1年以上:400",
+                                "weiduming": "距离毕业时长",
+                                "yonghuxinxi": "15"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:1000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 200,
+                                "guize": "一线城市:0 ; 二线城市:100 ; 其它:200",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区玉林市"
+                            },
+                            {
+                                "edu": 200,
+                                "guize": "一线城市:100 ; 二线城市:200 ; 其它:0",
+                                "weiduming": "学校地址城市类别",
+                                "yonghuxinxi": "佛山"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
+                                "weiduming": "通讯录",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.699999988079071,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "60"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景5",
+                "TelNo": "18675559705",
+                "IdentityCard": "450900196101011005",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 1
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "佛山市",
+                "GraduateDate": "</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>",
+                "EduSchool": "仲恺学院",
+                "EduRecord": "硕士研究生"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 0,
+        "is_success": 1,
+        "cur_credit": 10200,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 10200,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 400,
+                                "guize": "男:200 ; 女:400",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 9000,
+                                "guize": "大专以下:0 ; 大专:1400 ; 普通本科:3000 ; (211,985)本科:4000 ; 硕士:6000 ; 博士及以上:9000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "博士及以上"
+                            },
+                            {
+                                "edu": 400,
+                                "guize": "1年以内（含1年，且&gt;=6个月）:200 ; 1年以上:400",
+                                "weiduming": "距离毕业时长",
+                                "yonghuxinxi": "15"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:1000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 200,
+                                "guize": "一线城市:0 ; 二线城市:100 ; 其它:200",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区钦州市"
+                            },
+                            {
+                                "edu": 100,
+                                "guize": "一线城市:100 ; 二线城市:200 ; 其它:0",
+                                "weiduming": "学校地址城市类别",
+                                "yonghuxinxi": "广州"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 1200,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 600 ; 100个≤电话号码数＜200个:1000 ; 电话号码数≥200个:1200",
+                                "weiduming": "通讯录",
+                                "yonghuxinxi": "200"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.7999999523162842,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.5,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "80"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景6",
+                "TelNo": "18675559706",
+                "IdentityCard": "450700196101011006",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 2
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "广州市",
+                "GraduateDate": "</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>",
+                "EduSchool": "仲恺学院",
+                "EduRecord": "博士研究生"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 2,
+        "is_success": 1,
+        "cur_credit": 6500,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 6500,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "大专以下"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "24"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "已婚"
+                            },
+                            {
+                                "edu": 2500,
+                                "guize": "是:2500 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "3"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "自有"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广东省深圳市"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "深圳"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 2,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "2000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.0019999742507935,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "551"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 1,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 2,
+        "is_success": 1,
+        "cur_credit": 12400,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 12400,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "大专"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "31"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "未婚"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:2500 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "6"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "20"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "父母同住"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区南宁市"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "佛山"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 2.000890016555786,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "2000.89001"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.7999999523162842,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "950"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.949999988079071,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "10"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 2,
+        "is_success": 1,
+        "cur_credit": 10800,
+        "BASE64_result": {
+            "MsgBody": {
+                "cur_credit": 10800,
+                "error_code": 0,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 2500,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "普通本科"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "55"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "离异"
+                            },
+                            {
+                                "edu": 2500,
+                                "guize": "是:2500 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "12"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "50"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 250,
+                                "guize": "自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "租房"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区玉林市"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "玉林"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2359999418258667,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "668"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.8999999761581421,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "20"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 2,
+        "is_success": 1,
+        "cur_credit": 11800,
+        "BASE64_result": {
+ "MsgBody": {
+            "cur_credit": 11800,
+            "error_code": 0,
+            "fanyilist": [
+                {
+                    "mokuai": "身份",
+                    "weidu": [
+                        {
+                            "edu": 4000,
+                            "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
+                            "weiduming": "学籍",
+                            "yonghuxinxi": "(211,985)本科"
+                        },
+                        {
+                            "edu": 500,
+                            "guize": "男:250 ; 女:500",
+                            "weiduming": "性别",
+                            "yonghuxinxi": "女"
+                        },
+                        {
+                            "edu": 750,
+                            "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                            "weiduming": "年龄",
+                            "yonghuxinxi": "23"
+                        },
+                        {
+                            "edu": 500,
+                            "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                            "weiduming": "婚姻状况",
+                            "yonghuxinxi": "其他"
+                        },
+                        {
+                            "edu": 0,
+                            "guize": "是:2500 ; 否:0",
+                            "weiduming": "是否本地人",
+                            "yonghuxinxi": "非本地人"
+                        }
+                    ]
+                },
+                {
+                    "mokuai": "年收入",
+                    "weidu": [
+                        {
+                            "edu": 1250,
+                            "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                            "weiduming": "收入情况",
+                            "yonghuxinxi": "20"
+                        }
+                    ]
+                },
+                {
+                    "mokuai": "通讯录",
+                    "weidu": [
+                        {
+                            "edu": 2500,
+                            "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
+                            "weiduming": "电话号码数",
+                            "yonghuxinxi": "100"
+                        }
+                    ]
+                },
+                {
+                    "mokuai": "住宅类型",
+                    "weidu": [
+                        {
+                            "edu": 500,
+                            "guize": "自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
+                            "weiduming": "住宅信息",
+                            "yonghuxinxi": "学校/单位宿舍"
+                        }
+                    ]
+                },
+                {
+                    "mokuai": "地址信息",
+                    "weidu": [
+                        {
+                            "edu": 0,
+                            "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                            "weiduming": "身份证原始发证地城市类别",
+                            "yonghuxinxi": "北京市"
+                        },
+                        {
+                            "edu": 500,
+                            "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                            "weiduming": "常住城市类别",
+                            "yonghuxinxi": "玉林"
+                        }
+                    ]
+                },
+                {
+                    "mokuai": "信用卡",
+                    "weidu": [
+                        {
+                            "edu": 0,
+                            "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                            "weiduming": "信用卡得分",
+                            "yonghuxinxi": "0"
+                        }
+                    ]
+                },
+                {
+                    "mokuai": "芝麻分",
+                    "weidu": [
+                        {
+                            "edu": 1.399999976158142,
+                            "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                            "weiduming": "芝麻系数",
+                            "yonghuxinxi": "750"
+                        }
+                    ]
+                },
+                {
+                    "mokuai": "反欺诈",
+                    "weidu": [
+                        {
+                            "edu": 0.800000011920929,
+                            "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                            "weiduming": "同盾结果系数",
+                            "yonghuxinxi": "40"
+                        }
+                    ]
+                }
+            ]
+        }}
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 2,
+        "is_success": 1,
+        "cur_credit": 14300,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 14300,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 4500,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "硕士"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "40"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "未婚"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:2500 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "50"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 2500,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "113"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "其他"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区钦州市"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "玉林"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 1,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.600000023841858,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "850"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.699999988079071,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "60"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 32,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信非团贷场景13",
+                "TelNo": "18675559713",
+                "IdentityCard": "441900196101011013",
+                "CardType": 1,
+                "IsTuandai": 0,
+                "Sex": 1
+            },
+            "LivingInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "东莞市",
+                "AddressType": 4
+            },
+            "StudentCertification": {
+                "GraduateSchool": "北京大学",
+                "GraduateDate": "20150720165834000004",
+                "EducationApplyType": 1,
+                "DegreeType": 5
+            },
+            "FamilyInfo": {
+                "MarriageType": 1
+            },
+            "WorkInfo": {
+                "IncomeTypeId": 60
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"}]"
+            },
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 200
+                }
+            ]
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 2,
+        "is_success": 1,
+        "cur_credit": 13800,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 13800,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 5500,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2500 ; (211,985)本科:4000 ; 硕士:4500 ; 博士及以上:5500",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "博士及以上"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "55"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "已婚"
+                            },
+                            {
+                                "edu": 2500,
+                                "guize": "是:2500 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 2000,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "60"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 2500,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1500 ; 100个≤电话号码数＜200个:2500 ; 电话号码数≥200个:3000",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "113"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "自有:1000 ; 父母同住:1500 ; 租房:250 ; 学校/单位宿舍:500 ; 其它:500",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "学校/单位宿舍"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广东省东莞市"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "东莞"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 0.20000000298023224,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "200"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.7999999523162842,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.5,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "80"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 12500,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 12500,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "大专以下"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "23"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "已婚"
+                            },
+                            {
+                                "edu": 2000,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "3万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 750,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "自有"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广东省广州市"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "广州"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 10,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "10000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 1,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "0"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "5000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 0.10000000149011612,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "300"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 8500,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 8500,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "大专"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "41"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "未婚"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "6万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "20"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "父母同住"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区南宁市"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "佛山"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 1,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.949999988079071,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "10"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "1"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "10000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 0.10000000149011612,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "300"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 11800,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 11800,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 2000,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "普通本科"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "55"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "离异"
+                            },
+                            {
+                                "edu": 2000,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "12万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "50"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "租房"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区玉林市"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "玉林"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 1,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.8999999761581421,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "20"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 750,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "2"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "50000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 0.10000000149011612,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "300"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 13100,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 13100,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 3500,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "(211,985)本科"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "23"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "其他"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 1250,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "20万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "100"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "学校/单位宿舍"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广东省深圳市"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "黄山"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 3.000580072402954,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "3000.58008"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.800000011920929,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "40"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "3"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "100000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 0.10000000149011612,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "300"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 12300,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 12300,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 4500,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "硕士"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "35"
+                            },
+                            {
+                                "edu": 750,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "未婚"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "50万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 2500,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "200"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "其他"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区钦州市"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "深圳"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 1,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.2760000228881836,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "688"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.699999988079071,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "60"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "0"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "200000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 0.10000000149011612,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "300"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 12200,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 12200,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 5000,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "博士及以上"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "54"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "已婚"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 2000,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "51万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "101"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "学校/单位宿舍"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广西壮族自治区桂林市"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "深圳"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 2,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "2000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.7999999523162842,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.5,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "80"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "1"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "50000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 0.10000000149011612,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "300"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 50000,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 50000,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 5000,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "博士及以上"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "女"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "35"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "已婚"
+                            },
+                            {
+                                "edu": 2000,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 2000,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "51万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 2500,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "200"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 1500,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "父母同住"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广东省汕头市"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "汕头"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 10,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "10000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.7999999523162842,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 1,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 1000,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "3"
+                            },
+                            {
+                                "edu": 1000,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "200000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 240,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "600000"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "niiwoo_j_history": {
+        "user_type": 1,
+        "is_success": 1,
+        "cur_credit": 2800,
+        "BASE64_result": {
+            "MsgBody": {
+                "error_code": 0,
+                "cur_credit": 2800,
+                "fanyilist": [
+                    {
+                        "mokuai": "身份",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "大专以下:0 ; 大专:1500 ; 普通本科:2000 ; (211,985)本科:3500 ; 硕士:4500 ; 博士及以上:5000",
+                                "weiduming": "学籍",
+                                "yonghuxinxi": "大专以下"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "男:250 ; 女:500",
+                                "weiduming": "性别",
+                                "yonghuxinxi": "男"
+                            },
+                            {
+                                "edu": 500,
+                                "guize": "25岁及以下:750 ; 26-40岁:1000 ; 40岁以上:500",
+                                "weiduming": "年龄",
+                                "yonghuxinxi": "55"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "已婚:1000 ; 未婚:750 ; 离异:250 ; 其他:500",
+                                "weiduming": "婚姻状况",
+                                "yonghuxinxi": "离异"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "是:2000 ; 否:0",
+                                "weiduming": "是否本地人",
+                                "yonghuxinxi": "非本地人"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "年收入",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "年收入&lt;=3万:0 ; 3万&lt;年收入&lt;=6万:500 ; 7万&lt;年收入&lt;=12万:1000 ; 12万&lt;年收入&lt;=20万:1250 ; 20万&lt;年收入&lt;=50万:1500 ; 年收入&gt;50万:2000",
+                                "weiduming": "收入情况",
+                                "yonghuxinxi": "3万"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "通讯录",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "未授权:0 ; 电话号码数＜50个:0 ;  50个≤电话号码数＜100个: 1000 ; 100个≤电话号码数＜200个:1500 ; 电话号码数≥200个:2500",
+                                "weiduming": "电话号码数",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "住宅类型",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "自有:750 ; 父母同住:1500 ; 租房:500 ; 学校/单位宿舍:1000 ; 其它:1000",
+                                "weiduming": "住宅信息",
+                                "yonghuxinxi": "租房"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "地址信息",
+                        "weidu": [
+                            {
+                                "edu": 500,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "身份证原始发证地城市类别",
+                                "yonghuxinxi": "广东省汕头市"
+                            },
+                            {
+                                "edu": 250,
+                                "guize": "一线城市:0 ; 二线城市:250 ; 其它:500",
+                                "weiduming": "常住城市类别",
+                                "yonghuxinxi": "东莞"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "信用卡",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "信用卡得分 = 信用卡最大还款金额 * 0.5 /500(信用卡最大还款金额：指能获取用户所有信用卡中近6个月中的最大应还款金额);",
+                                "weiduming": "信用卡得分",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "芝麻分",
+                        "weidu": [
+                            {
+                                "edu": 1.7999999523162842,
+                                "guize": "芝麻分系数=（芝麻分-550分）*0.002+1; 由于芝麻分低于550分的用户被拒绝，因而芝麻分系数的取值范围为1至1.8",
+                                "weiduming": "芝麻系数",
+                                "yonghuxinxi": "1000"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "反欺诈",
+                        "weidu": [
+                            {
+                                "edu": 0.699999988079071,
+                                "guize": "事件结果='通过'&amp;0分≤最终得分＜10分:1 ; 事件结果='通过'&amp;10分≤最终得分＜20分:0.95 ; 事件结果='人工审核'&amp;20分≤最终得分＜40分:0.9 ; 事件结果='人工审核'&amp;40分≤最终得分＜60分:0.8 ; 事件结果='人工审核'&amp;60分≤最终得分＜80分:0.7 ; 事件结果='拒绝'&amp;命中同盾借款事件失信借款中的'失信证据库': 0.5",
+                                "weiduming": "同盾结果系数",
+                                "yonghuxinxi": "60"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网行为",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "借款次数=0次:0 ;借款次数=1次:500 ;借款次数=2次:750 ;借款次数&gt;2次:1000 ;",
+                                "weiduming": "近一年在团贷网的借款次数",
+                                "yonghuxinxi": "0"
+                            },
+                            {
+                                "edu": 0,
+                                "guize": "0元≤借款金额≤5000元:0 ; 5000元&lt;借款金额≤10000元:250 ; 10000元&lt;借款金额≤50000元:500 ; 50000元&lt;借款金额≤100000元:750 ; 借款金额&gt;100000元 :1000",
+                                "weiduming": "近一年在团贷网的借款金额",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    },
+                    {
+                        "mokuai": "团贷网待收",
+                        "weidu": [
+                            {
+                                "edu": 0,
+                                "guize": "团贷网待收得分 = 将来一年内平均每天团贷网待收金额 * 0.2/500",
+                                "weiduming": "团贷网待收得分",
+                                "yonghuxinxi": "0"
+                            }
+                        ]
+                    }
+                ]
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9368,7 +9571,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9378,12 +9581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9402,7 +9599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9423,18 +9620,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -10014,28 +10199,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10255,13 +10440,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -10506,13 +10691,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+    <row r="27" spans="1:9" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
@@ -10676,53 +10861,53 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="13" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="1:9" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18" t="s">
+      <c r="H34" s="14"/>
+      <c r="I34" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="1:9" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16488,13 +16673,13 @@
         <v>618</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1120</v>
+        <v>1083</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1119</v>
+        <v>1082</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1123</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="280.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16517,7 +16702,7 @@
         <v>618</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1117</v>
+        <v>1080</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -19226,7 +19411,7 @@
         <v>970</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1116</v>
+        <v>1079</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>971</v>
@@ -19278,7 +19463,7 @@
         <v>970</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1118</v>
+        <v>1081</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>978</v>
@@ -19428,11 +19613,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19443,11 +19628,13 @@
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="41.5" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="48.75" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="67" customWidth="1"/>
+    <col min="10" max="10" width="38.5" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19476,14 +19663,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>998</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>999</v>
       </c>
       <c r="D2" t="s">
@@ -19495,22 +19682,58 @@
       <c r="F2" t="s">
         <v>970</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="6" t="str">
+        <f ca="1">J2&amp;TEXT(NOW()+240,"yyyymmdd")&amp;K2</f>
+        <v>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景1",
+                "TelNo": "18675559701",
+                "IdentityCard": "110000196101011001",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 1
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "StudentInfo": {
+                "LivingProvince": "北京市",
+                "LivingCity": "北京市",
+                "GraduateDate": "20161014",
+                "EduSchool": "新兴电大",
+                "EduRecord": "电大"
+            }
+        }
+    }
+}</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1002</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1003</v>
       </c>
       <c r="D3" t="s">
         <v>1000</v>
@@ -19521,22 +19744,61 @@
       <c r="F3" t="s">
         <v>970</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="6" t="str">
+        <f ca="1">J3&amp;TEXT(NOW()+465,"yyyymmdd")&amp;K3</f>
+        <v>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景2",
+                "TelNo": "18675559702",
+                "IdentityCard": "450100196101011002",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 2
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广西壮族自治区",
+                "LivingCity": "南宁市",
+                "GraduateDate": "20170527",
+                "EduSchool": "大学专科",
+                "EduRecord": "专科"
+            }
+        }
+    }
+}</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1007</v>
+        <v>1003</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1004</v>
       </c>
       <c r="D4" t="s">
         <v>1000</v>
@@ -19547,22 +19809,61 @@
       <c r="F4" t="s">
         <v>970</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="6" t="str">
+        <f ca="1">J4&amp;TEXT(NOW()+240,"yyyymmdd")&amp;K4</f>
+        <v>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景3",
+                "TelNo": "18675559703",
+                "IdentityCard": "440500196101011003",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 1
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "河源市",
+                "GraduateDate": "20161014",
+                "EduSchool": "大学本科",
+                "EduRecord": "本科"
+            }
+        }
+    }
+}</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1006</v>
       </c>
       <c r="D5" t="s">
         <v>1000</v>
@@ -19573,22 +19874,61 @@
       <c r="F5" t="s">
         <v>970</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="6" t="str">
+        <f ca="1">J5&amp;TEXT(NOW()+240,"yyyymmdd")&amp;K5</f>
+        <v>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景4",
+                "TelNo": "18675559704",
+                "IdentityCard": "450100196101011004",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 2
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "广州市",
+                "GraduateDate": "20161014",
+                "EduSchool": "中山大学",
+                "EduRecord": "本科"
+            }
+        }
+    }
+}</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1013</v>
+        <v>1007</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1008</v>
       </c>
       <c r="D6" t="s">
         <v>1000</v>
@@ -19599,22 +19939,61 @@
       <c r="F6" t="s">
         <v>970</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="6" t="str">
+        <f ca="1">J6&amp;TEXT(NOW()+465,"yyyymmdd")&amp;K6</f>
+        <v>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景5",
+                "TelNo": "18675559705",
+                "IdentityCard": "450900196101011005",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 1
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "-1"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "佛山市",
+                "GraduateDate": "20170527",
+                "EduSchool": "仲恺学院",
+                "EduRecord": "硕士研究生"
+            }
+        }
+    }
+}</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1017</v>
+        <v>1009</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1010</v>
       </c>
       <c r="D7" t="s">
         <v>1000</v>
@@ -19625,22 +20004,61 @@
       <c r="F7" t="s">
         <v>970</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="6" t="str">
+        <f ca="1">J7&amp;TEXT(NOW()+465,"yyyymmdd")&amp;K7</f>
+        <v>{
+    "credit_request": {
+        "update_time": 1447654250,
+        "handle_type": 2,
+        "json": {
+            "UserBasicInfo": {
+                "UserType": 1,
+                "UserStatus": 64,
+                "UserId": "110000af-1fef-44f9-84b9-72cb19cad001",
+                "RealName": "综合授信学生场景6",
+                "TelNo": "18675559706",
+                "IdentityCard": "450700196101011006",
+                "CardType": 1,
+                "CardAddress": "证件地址",
+                "Sex": 2
+            },
+            "PostPhoneList": {
+                "PhoneListDate": "20150820165834000004",
+                "AddressList": "[{\"phone\":\"13511111001\",\"name\" : \"test1\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111002\",\"name\": \"test2\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111003\",\"name\" : \"test3\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111004\",\"name\": \"test4\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111005\",\"name\" : \"test5\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111006\",\"name\": \"test6\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111007\",\"name\" : \"test7\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111008\",\"name\": \"test8\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111009\",\"name\" : \"test9\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111010\",\"name\": \"test10\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111011\",\"name\" : \"test11\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111012\",\"name\": \"test12\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111013\",\"name\" : \"test13\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111014\",\"name\": \"test14\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111015\",\"name\" : \"test15\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111016\",\"name\": \"test16\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111017\",\"name\" : \"test17\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111018\",\"name\": \"test18\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111019\",\"name\" : \"test19\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111020\",\"name\": \"test20\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111021\",\"name\" : \"test21\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111022\",\"name\": \"test22\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111023\",\"name\" : \"test23\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111024\",\"name\": \"test24\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111025\",\"name\" : \"test25\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111026\",\"name\": \"test26\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111027\",\"name\" : \"test27\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111028\",\"name\": \"test28\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111029\",\"name\" : \"test29\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111030\",\"name\": \"test30\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111031\",\"name\" : \"test31\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111032\",\"name\": \"test32\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111033\",\"name\" : \"test33\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111034\",\"name\": \"test34\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111035\",\"name\" : \"test35\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111036\",\"name\": \"test36\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111037\",\"name\" : \"test37\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111038\",\"name\": \"test38\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111039\",\"name\" : \"test39\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111040\",\"name\": \"test40\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111041\",\"name\" : \"test41\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111042\",\"name\": \"test42\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111043\",\"name\" : \"test43\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111044\",\"name\": \"test44\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111045\",\"name\" : \"test45\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111046\",\"name\": \"test46\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111047\",\"name\" : \"test47\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111048\",\"name\": \"test48\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111049\",\"name\" : \"test49\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111050\",\"name\": \"test50\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111051\",\"name\" : \"test51\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111052\",\"name\": \"test52\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111053\",\"name\" : \"test53\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111054\",\"name\": \"test54\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111055\",\"name\" : \"test55\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111056\",\"name\": \"test56\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111057\",\"name\" : \"test57\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111058\",\"name\": \"test58\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111059\",\"name\" : \"test59\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111060\",\"name\": \"test60\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111061\",\"name\" : \"test61\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111062\",\"name\": \"test62\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111063\",\"name\" : \"test63\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111064\",\"name\": \"test64\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111065\",\"name\" : \"test65\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111066\",\"name\": \"test66\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111067\",\"name\" : \"test67\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111068\",\"name\": \"test68\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111069\",\"name\" : \"test69\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111070\",\"name\": \"test70\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111071\",\"name\" : \"test71\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111072\",\"name\": \"test72\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111073\",\"name\" : \"test73\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111074\",\"name\": \"test74\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111075\",\"name\" : \"test75\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111076\",\"name\": \"test76\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111077\",\"name\" : \"test77\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111078\",\"name\": \"test78\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111079\",\"name\" : \"test79\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111080\",\"name\": \"test80\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111081\",\"name\" : \"test81\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111082\",\"name\": \"test82\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111083\",\"name\" : \"test83\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111084\",\"name\": \"test84\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111085\",\"name\" : \"test85\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111086\",\"name\": \"test86\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111087\",\"name\" : \"test87\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111088\",\"name\": \"test88\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111089\",\"name\" : \"test89\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111090\",\"name\": \"test90\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111091\",\"name\" : \"test91\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111092\",\"name\": \"test92\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111093\",\"name\" : \"test93\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111094\",\"name\": \"test94\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111095\",\"name\" : \"test95\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111096\",\"name\": \"test96\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111097\",\"name\" : \"test97\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111098\",\"name\": \"test98\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111099\",\"name\" : \"test99\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111100\",\"name\": \"test100\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111101\",\"name\" : \"test101\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111102\",\"name\": \"test102\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111103\",\"name\" : \"test103\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111104\",\"name\": \"test104\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111105\",\"name\" : \"test105\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111106\",\"name\": \"test106\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111107\",\"name\" : \"test107\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111108\",\"name\": \"test108\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111109\",\"name\" : \"test109\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111110\",\"name\": \"test110\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111111\",\"name\" : \"test111\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111112\",\"name\": \"test112\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111113\",\"name\" : \"test113\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111114\",\"name\": \"test114\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111115\",\"name\" : \"test115\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111116\",\"name\": \"test116\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111117\",\"name\" : \"test117\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111118\",\"name\": \"test118\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111119\",\"name\" : \"test119\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111120\",\"name\": \"test120\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111121\",\"name\" : \"test121\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111122\",\"name\": \"test122\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111123\",\"name\" : \"test123\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111124\",\"name\": \"test124\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111125\",\"name\" : \"test125\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111126\",\"name\": \"test126\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111127\",\"name\" : \"test127\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111128\",\"name\": \"test128\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111129\",\"name\" : \"test129\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111130\",\"name\": \"test130\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111131\",\"name\" : \"test131\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111132\",\"name\": \"test132\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111133\",\"name\" : \"test133\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111134\",\"name\": \"test134\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111135\",\"name\" : \"test135\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111136\",\"name\": \"test136\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111137\",\"name\" : \"test137\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111138\",\"name\": \"test138\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111139\",\"name\" : \"test139\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111140\",\"name\": \"test140\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111141\",\"name\" : \"test141\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111142\",\"name\": \"test142\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111143\",\"name\" : \"test143\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111144\",\"name\": \"test144\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111145\",\"name\" : \"test145\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111146\",\"name\": \"test146\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111147\",\"name\" : \"test147\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111148\",\"name\": \"test148\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111149\",\"name\" : \"test149\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111150\",\"name\": \"test150\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111151\",\"name\" : \"test151\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111152\",\"name\": \"test152\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111153\",\"name\" : \"test153\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111154\",\"name\": \"test154\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111155\",\"name\" : \"test155\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111156\",\"name\": \"test156\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111157\",\"name\" : \"test157\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111158\",\"name\": \"test158\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111159\",\"name\" : \"test159\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111160\",\"name\": \"test160\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111161\",\"name\" : \"test161\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111162\",\"name\": \"test162\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111163\",\"name\" : \"test163\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111164\",\"name\": \"test164\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111165\",\"name\" : \"test165\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111166\",\"name\": \"test166\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111167\",\"name\" : \"test167\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111168\",\"name\": \"test168\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111169\",\"name\" : \"test169\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111170\",\"name\": \"test170\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111171\",\"name\" : \"test171\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111172\",\"name\": \"test172\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111173\",\"name\" : \"test173\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111174\",\"name\": \"test174\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111175\",\"name\" : \"test175\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111176\",\"name\": \"test176\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111177\",\"name\" : \"test177\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111178\",\"name\": \"test178\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111179\",\"name\" : \"test179\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111180\",\"name\": \"test180\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111181\",\"name\" : \"test181\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111182\",\"name\": \"test182\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111183\",\"name\" : \"test183\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111184\",\"name\": \"test184\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111185\",\"name\" : \"test185\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111186\",\"name\": \"test186\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111187\",\"name\" : \"test187\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111188\",\"name\": \"test188\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111189\",\"name\" : \"test189\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111190\",\"name\": \"test190\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111191\",\"name\" : \"test191\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111192\",\"name\": \"test192\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111193\",\"name\" : \"test193\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111194\",\"name\": \"test194\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111195\",\"name\" : \"test195\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111196\",\"name\": \"test196\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111197\",\"name\" : \"test197\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111198\",\"name\": \"test198\",\"email\" : \"209883@qq.com\"},{\"phone\":\"13511111199\",\"name\" : \"test199\",\"email\" : \"12345@qq.com\"},{\"phone\":\"13511111200\",\"name\": \"test200\",\"email\" : \"209883@qq.com\"}]"
+            },
+            "StudentCertification": {
+                "EducationApplyType": 1
+            },
+            "StudentInfo": {
+                "LivingProvince": "广东省",
+                "LivingCity": "广州市",
+                "GraduateDate": "20170527",
+                "EduSchool": "仲恺学院",
+                "EduRecord": "博士研究生"
+            }
+        }
+    }
+}</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1021</v>
+        <v>1011</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1012</v>
       </c>
       <c r="D8" t="s">
         <v>1000</v>
@@ -19651,22 +20069,22 @@
       <c r="F8" t="s">
         <v>970</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1025</v>
+        <v>1013</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1014</v>
       </c>
       <c r="D9" t="s">
         <v>1000</v>
@@ -19677,48 +20095,48 @@
       <c r="F9" t="s">
         <v>970</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="G9" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D10" t="s">
         <v>1000</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>970</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1032</v>
+        <v>1017</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1018</v>
       </c>
       <c r="D11" t="s">
         <v>1000</v>
@@ -19729,22 +20147,22 @@
       <c r="F11" t="s">
         <v>970</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1036</v>
+        <v>1019</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1020</v>
       </c>
       <c r="D12" t="s">
         <v>1000</v>
@@ -19755,22 +20173,22 @@
       <c r="F12" t="s">
         <v>970</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1040</v>
+        <v>1021</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1022</v>
       </c>
       <c r="D13" t="s">
         <v>1000</v>
@@ -19781,22 +20199,22 @@
       <c r="F13" t="s">
         <v>970</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1044</v>
+        <v>1023</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1024</v>
       </c>
       <c r="D14" t="s">
         <v>1000</v>
@@ -19807,22 +20225,22 @@
       <c r="F14" t="s">
         <v>970</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1048</v>
+        <v>1025</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1026</v>
       </c>
       <c r="D15" t="s">
         <v>1000</v>
@@ -19833,22 +20251,22 @@
       <c r="F15" t="s">
         <v>970</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1052</v>
+        <v>1027</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1028</v>
       </c>
       <c r="D16" t="s">
         <v>1000</v>
@@ -19859,22 +20277,22 @@
       <c r="F16" t="s">
         <v>970</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1056</v>
+        <v>1029</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1030</v>
       </c>
       <c r="D17" t="s">
         <v>1000</v>
@@ -19885,22 +20303,22 @@
       <c r="F17" t="s">
         <v>970</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1060</v>
+        <v>1031</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1032</v>
       </c>
       <c r="D18" t="s">
         <v>1000</v>
@@ -19911,22 +20329,22 @@
       <c r="F18" t="s">
         <v>970</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1064</v>
+        <v>1033</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1034</v>
       </c>
       <c r="D19" t="s">
         <v>1000</v>
@@ -19937,22 +20355,22 @@
       <c r="F19" t="s">
         <v>970</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1068</v>
+        <v>1035</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1036</v>
       </c>
       <c r="D20" t="s">
         <v>1000</v>
@@ -19963,22 +20381,22 @@
       <c r="F20" t="s">
         <v>970</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1072</v>
+        <v>1037</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1038</v>
       </c>
       <c r="D21" t="s">
         <v>1000</v>
@@ -19989,17 +20407,17 @@
       <c r="F21" t="s">
         <v>970</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>1074</v>
+      <c r="G21" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E8:E13 E14:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21">
       <formula1>"数据回流接口,用户画像标签,用户画像接口,反欺诈接口,授信接口,量化数据接口"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20012,9 +20430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20062,18 +20480,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1049</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1075</v>
+        <v>1039</v>
       </c>
       <c r="D2" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>969</v>
@@ -20082,16 +20500,16 @@
         <v>970</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1126</v>
+        <v>1087</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1127</v>
+        <v>1088</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1124</v>
+        <v>1085</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -20101,13 +20519,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="D3" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>969</v>
@@ -20116,13 +20534,13 @@
         <v>970</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1106</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20130,13 +20548,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="D4" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>969</v>
@@ -20145,13 +20563,13 @@
         <v>970</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1111</v>
+        <v>1075</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1109</v>
+        <v>1073</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1108</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20159,13 +20577,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="D5" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>969</v>
@@ -20174,13 +20592,13 @@
         <v>970</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1112</v>
+        <v>1076</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1107</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20188,13 +20606,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1080</v>
+        <v>1044</v>
       </c>
       <c r="D6" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>969</v>
@@ -20203,13 +20621,13 @@
         <v>970</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>1125</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20217,13 +20635,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="D7" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>969</v>
@@ -20232,13 +20650,13 @@
         <v>970</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20246,13 +20664,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="D8" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>969</v>
@@ -20261,13 +20679,13 @@
         <v>970</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1102</v>
+        <v>1066</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20275,13 +20693,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1092</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1083</v>
+        <v>1047</v>
       </c>
       <c r="D9" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>969</v>
@@ -20290,13 +20708,13 @@
         <v>970</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1103</v>
+        <v>1067</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1102</v>
+        <v>1066</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20304,13 +20722,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="D10" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>969</v>
@@ -20319,13 +20737,13 @@
         <v>970</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1104</v>
+        <v>1068</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase_bak.xlsx
+++ b/TestCase_bak.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UPSLabel" sheetId="1" r:id="rId1"/>
@@ -15726,7 +15726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
@@ -19615,9 +19615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="A2:XFD21"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19707,7 +19707,7 @@
             "StudentInfo": {
                 "LivingProvince": "北京市",
                 "LivingCity": "北京市",
-                "GraduateDate": "20161014",
+                "GraduateDate": "20161016",
                 "EduSchool": "新兴电大",
                 "EduRecord": "电大"
             }
@@ -19772,7 +19772,7 @@
             "StudentInfo": {
                 "LivingProvince": "广西壮族自治区",
                 "LivingCity": "南宁市",
-                "GraduateDate": "20170527",
+                "GraduateDate": "20170529",
                 "EduSchool": "大学专科",
                 "EduRecord": "专科"
             }
@@ -19837,7 +19837,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "河源市",
-                "GraduateDate": "20161014",
+                "GraduateDate": "20161016",
                 "EduSchool": "大学本科",
                 "EduRecord": "本科"
             }
@@ -19902,7 +19902,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "广州市",
-                "GraduateDate": "20161014",
+                "GraduateDate": "20161016",
                 "EduSchool": "中山大学",
                 "EduRecord": "本科"
             }
@@ -19967,7 +19967,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "佛山市",
-                "GraduateDate": "20170527",
+                "GraduateDate": "20170529",
                 "EduSchool": "仲恺学院",
                 "EduRecord": "硕士研究生"
             }
@@ -20032,7 +20032,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "广州市",
-                "GraduateDate": "20170527",
+                "GraduateDate": "20170529",
                 "EduSchool": "仲恺学院",
                 "EduRecord": "博士研究生"
             }
@@ -20430,9 +20430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20480,7 +20480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="299.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>

--- a/TestCase_bak.xlsx
+++ b/TestCase_bak.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="UPSLabel" sheetId="1" r:id="rId1"/>
@@ -5925,88 +5925,6 @@
         "handle_type": 3,
         "json": {"CardInfo":[{"MaxReturnAmount":1000},{"MaxReturnAmount":2000},{"MaxReturnAmount":2000}],"EnterpRegistrInfo":{"EnterpRegistrCapital":0,"IsEnterprisLegalPerson":0},"FamilyInfo":{"IsHaveChildren":1,"MarriageType":1},"LivingInfo":{"AddressType":1,"LivingAddress":"null","LivingCity":"桂林市","LivingProvince":"广西壮族自治区"},"PostPhoneList":{"AddressList":"[{\"phone\":\"13410979700\",\"name\":\"罗春0\",\"email\":\"\"},{\"phone\":\"13410979701\",\"name\":\"罗春1\",\"email\":\"\"},{\"phone\":\"13410979702\",\"name\":\"罗春2\",\"email\":\"\"},{\"phone\":\"13410979703\",\"name\":\"罗春3\",\"email\":\"\"},{\"phone\":\"13410979704\",\"name\":\"罗春4\",\"email\":\"\"},{\"phone\":\"13410979705\",\"name\":\"罗春5\",\"email\":\"\"},{\"phone\":\"134109749706\",\"name\":\"罗春6\",\"email\":\"\"},{\"phone\":\"13410979707\",\"name\":\"罗春7\",\"email\":\"\"},{\"phone\":\"13410979708\",\"name\":\"罗春8\",\"email\":\"\"},{\"phone\":\"13410979709\",\"name\":\"罗春9\",\"email\":\"\"},{\"phone\":\"13410979710\",\"name\":\"罗春10\",\"email\":\"\"},{\"phone\":\"13410979711\",\"name\":\"罗春11\",\"email\":\"\"},{\"phone\":\"13410979712\",\"name\":\"罗春12\",\"email\":\"\"},{\"phone\":\"13410979713\",\"name\":\"罗春13\",\"email\":\"\"},{\"phone\":\"13410979714\",\"name\":\"罗春14\",\"email\":\"\"},{\"phone\":\"13410979715\",\"name\":\"罗春15\",\"email\":\"\"},{\"phone\":\"13410979716\",\"name\":\"罗春16\",\"email\":\"\"},{\"phone\":\"13410979717\",\"name\":\"罗春17\",\"email\":\"\"},{\"phone\":\"13410979718\",\"name\":\"罗春18\",\"email\":\"\"},{\"phone\":\"13410979719\",\"name\":\"罗春19\",\"email\":\"\"},{\"phone\":\"13410979720\",\"name\":\"罗春20\",\"email\":\"\"},{\"phone\":\"13410979721\",\"name\":\"罗春21\",\"email\":\"\"},{\"phone\":\"13410979722\",\"name\":\"罗春22\",\"email\":\"\"},{\"phone\":\"13410979723\",\"name\":\"罗春23\",\"email\":\"\"},{\"phone\":\"13410979724\",\"name\":\"罗春24\",\"email\":\"\"},{\"phone\":\"13410979725\",\"name\":\"罗春25\",\"email\":\"\"},{\"phone\":\"13410979726\",\"name\":\"罗春26\",\"email\":\"\"},{\"phone\":\"13410979727\",\"name\":\"罗春27\",\"email\":\"\"},{\"phone\":\"13410979728\",\"name\":\"罗春28\",\"email\":\"\"},{\"phone\":\"13410979729\",\"name\":\"罗春29\",\"email\":\"\"},{\"phone\":\"13410979730\",\"name\":\"罗春30\",\"email\":\"\"},{\"phone\":\"13410979731\",\"name\":\"罗春31\",\"email\":\"\"},{\"phone\":\"13410979732\",\"name\":\"罗春32\",\"email\":\"\"},{\"phone\":\"13410979733\",\"name\":\"罗春33\",\"email\":\"\"},{\"phone\":\"13410979734\",\"name\":\"罗春34\",\"email\":\"\"},{\"phone\":\"13410979735\",\"name\":\"罗春35\",\"email\":\"\"},{\"phone\":\"13410979736\",\"name\":\"罗春36\",\"email\":\"\"},{\"phone\":\"13410979737\",\"name\":\"罗春37\",\"email\":\"\"},{\"phone\":\"13410979738\",\"name\":\"罗春38\",\"email\":\"\"},{\"phone\":\"13410979739\",\"name\":\"罗春39\",\"email\":\"\"},{\"phone\":\"13410979740\",\"name\":\"罗春40\",\"email\":\"\"},{\"phone\":\"13410979741\",\"name\":\"罗春41\",\"email\":\"\"},{\"phone\":\"13410979742\",\"name\":\"罗春42\",\"email\":\"\"},{\"phone\":\"13410979743\",\"name\":\"罗春43\",\"email\":\"\"},{\"phone\":\"13410979744\",\"name\":\"罗春44\",\"email\":\"\"},{\"phone\":\"13410979745\",\"name\":\"罗春45\",\"email\":\"\"},{\"phone\":\"13410979746\",\"name\":\"罗春46\",\"email\":\"\"},{\"phone\":\"13410979747\",\"name\":\"罗春47\",\"email\":\"\"},{\"phone\":\"13410979748\",\"name\":\"罗春48\",\"email\":\"\"},{\"phone\":\"13410979749\",\"name\":\"罗春49\",\"email\":\"\"},{\"phone\":\"13410979750\",\"name\":\"罗春50\",\"email\":\"\"}]","PhoneListDate":"20151012100943000001"},"PropertyInfo":{"Car":1,"CarList":[],"House":1,"HouseList":[{"HouseProvince":"广西壮族自治区","HouseCity":"桂林市"}]},"StudentCertification":{"DegreeType":1,"EducationApplyType":0,"GraduateDate":"20140628000000000006","IsVerify":true},"StudentInfo":{},"UserBasicInfo":{"IdentityCard":"450300199001011101","IsDCredit":1,"IsJCredit":0,"Istuandai":0,"RealName":"微担保授信场景1","RegisterTime":"20151009143853000005","Sex":1,"TelNo":"13077660101","UserId":"360121af-1fef-44f9-84b9-72cb19cad102","UserStatus":33,"UserType":1},"WorkInfo":{"Income":0,"IncomeTypeId":20.00,"PositionLevel":1,"CompanyProvince":"广东省","CompanyCity":"深圳市","WorkYears":0}}
             }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "HTTPMOCK": {
-        "tuandai_loan_times": 0,
-        "tuandai_loan_menoy": 0,
-        "tuandai_amount": 20000
-    },
-    "MQMOCK": {
-        "sesame_query": {
-            "score": "950"
-        },
-        "yanghang_summary": {
-            "overdueCreditcardNum": "1",
-            "overduhouseLoan": "2",
-            "overdueotherLoan": "1"
-        },
-        "yanghang_detail": {
-            "id": "",
-            "queryTime": "",
-            "reportTime": "",
-            "name": "",
-            "idNumber": "",
-            "detailResult": [
-                {
-                    "creditDeadline": "2017-08",
-                    "loanBalance": "20000"
-                },
-                {
-                    "creditDeadline": "2017-08",
-                    "loanBalance": "20000"
-                }
-            ]
-        },
-        "yanghang_public": [
-            {
-                "publicRecordType": "0"
-            },
-            {
-                "publicRecordType": "0"
-            },
-            {
-                "publicRecordType": "0"
-            },
-            {
-                "publicRecordType": "2"
-            }
-        ],
-        "tongdun_loan": {
-            "final_decision": "Accept",
-            "final_score": 10,
-            "hit_rules": [],
-            "policy_name": "借款策略集_android",
-            "policy_set": [
-                {
-                    "hit_rules": [
-                        {
-                            "decision": "Accept",
-                            "id": "15180",
-                            "name": "1天内设备或账户借款次数过多",
-                            "parentUuid": "",
-                            "score": 20,
-                            "uuid": "22115304a4a44c038687c20ff820a1fd"
-                        }
-                    ],
-                    "policy_decision": "Review",
-                    "policy_mode": "Weighted",
-                    "policy_name": "异常借款_android",
-                    "policy_score": 20,
-                    "policy_uuid": "67fb2de53572450db52d4fc7ae2e8cf8",
-                    "risk_type": "suspiciousLoan"
-                }
-            ],
-            "policy_set_name": "借款策略集_android",
-            "risk_type": "suspiciousLoan_review",
-            "seq_id": "1439086575168-98863732",
-            "spend_time": 164,
-            "success": true
-        }
-    }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -9529,6 +9447,88 @@
                     }
                 ]
             }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "HTTPMOCK": {
+        "tuandai_loan_times": 0,
+        "tuandai_loan_menoy": 0,
+        "tuandai_amount": 20000
+    },
+    "MQMOCK": {
+        "sesame_query": {
+            "score": "950"
+        },
+        "yanghang_summary": {
+            "overdueCreditcardNum": "1",
+            "overduhouseLoan": "2",
+            "overdueotherLoan": "1"
+        },
+        "yanghang_detail": {
+            "id": "",
+            "queryTime": "",
+            "reportTime": "",
+            "name": "",
+            "idNumber": "",
+            "detailResult": [
+                {
+                    "creditDeadline": "2017-08",
+                    "loanBalance": "20000"
+                },
+                {
+                    "creditDeadline": "2017-08",
+                    "loanBalance": "20000"
+                }
+            ]
+        },
+        "yanghang_public": [
+            {
+                "publicRecordType": "0"
+            },
+            {
+                "publicRecordType": "0"
+            },
+            {
+                "publicRecordType": "0"
+            },
+            {
+                "publicRecordType": "2"
+            }
+        ],
+        "tongdun_loan": {
+            "final_decision": "Accept",
+            "final_score": 10,
+            "hit_rules": [],
+            "policy_name": "借款策略集_android",
+            "policy_set": [
+                {
+                    "hit_rules": [
+                        {
+                            "decision": "Accept",
+                            "id": "15180",
+                            "name": "1天内设备或账户借款次数过多",
+                            "parentUuid": "",
+                            "score": 20,
+                            "uuid": "22115304a4a44c038687c20ff820a1fd"
+                        }
+                    ],
+                    "policy_decision": "Review",
+                    "policy_mode": "Weighted",
+                    "policy_name": "异常借款_android",
+                    "policy_score": 20,
+                    "policy_uuid": "67fb2de53572450db52d4fc7ae2e8cf8",
+                    "risk_type": "suspiciousLoan"
+                }
+            ],
+            "policy_set_name": "借款策略集_android",
+            "risk_type": "suspiciousLoan_review",
+            "seq_id": "1439086575168-98863732",
+            "spend_time": 164,
+            "success": true
         }
     }
 }</t>
@@ -15726,7 +15726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
@@ -19615,9 +19615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19707,7 +19707,7 @@
             "StudentInfo": {
                 "LivingProvince": "北京市",
                 "LivingCity": "北京市",
-                "GraduateDate": "20161016",
+                "GraduateDate": "20161028",
                 "EduSchool": "新兴电大",
                 "EduRecord": "电大"
             }
@@ -19716,13 +19716,13 @@
 }</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>1103</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19772,7 +19772,7 @@
             "StudentInfo": {
                 "LivingProvince": "广西壮族自治区",
                 "LivingCity": "南宁市",
-                "GraduateDate": "20170529",
+                "GraduateDate": "20170610",
                 "EduSchool": "大学专科",
                 "EduRecord": "专科"
             }
@@ -19781,13 +19781,13 @@
 }</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>1106</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19837,7 +19837,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "河源市",
-                "GraduateDate": "20161016",
+                "GraduateDate": "20161028",
                 "EduSchool": "大学本科",
                 "EduRecord": "本科"
             }
@@ -19846,13 +19846,13 @@
 }</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>1109</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19902,7 +19902,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "广州市",
-                "GraduateDate": "20161016",
+                "GraduateDate": "20161028",
                 "EduSchool": "中山大学",
                 "EduRecord": "本科"
             }
@@ -19911,13 +19911,13 @@
 }</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>1112</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19967,7 +19967,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "佛山市",
-                "GraduateDate": "20170529",
+                "GraduateDate": "20170610",
                 "EduSchool": "仲恺学院",
                 "EduRecord": "硕士研究生"
             }
@@ -19976,13 +19976,13 @@
 }</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>1115</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20032,7 +20032,7 @@
             "StudentInfo": {
                 "LivingProvince": "广东省",
                 "LivingCity": "广州市",
-                "GraduateDate": "20170529",
+                "GraduateDate": "20170610",
                 "EduSchool": "仲恺学院",
                 "EduRecord": "博士研究生"
             }
@@ -20041,13 +20041,13 @@
 }</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>1118</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20070,10 +20070,10 @@
         <v>970</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20096,10 +20096,10 @@
         <v>970</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20122,10 +20122,10 @@
         <v>970</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20148,10 +20148,10 @@
         <v>970</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20174,10 +20174,10 @@
         <v>970</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20200,10 +20200,10 @@
         <v>970</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>1125</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20226,10 +20226,10 @@
         <v>970</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20252,10 +20252,10 @@
         <v>970</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20278,10 +20278,10 @@
         <v>970</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20304,10 +20304,10 @@
         <v>970</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20330,10 +20330,10 @@
         <v>970</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20356,10 +20356,10 @@
         <v>970</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20382,10 +20382,10 @@
         <v>970</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20408,10 +20408,10 @@
         <v>970</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -20430,9 +20430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20503,7 +20503,7 @@
         <v>1087</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1088</v>
+        <v>1134</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>1085</v>
